--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,7 +6274,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.459566</v>
+        <v>-58.437378</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.634615</v>
+        <v>-34.62116</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6350,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6407,14 +6407,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6426,7 +6426,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,15 +6461,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6479,18 +6479,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6502,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,15 +6537,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,26 +6559,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6588,17 +6588,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6621,60 +6621,60 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6711,14 +6711,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6730,7 +6730,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6787,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6806,17 +6806,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6882,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6930,23 +6930,23 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6958,17 +6958,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7011,14 +7011,14 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7034,27 +7034,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7091,93 +7091,17 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>-517</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Av Dorrego 2721</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808373635</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.432805</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.574345</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No corresponde</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1025,7 +1025,11 @@
           <t>Fuente Teco</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>-58.412544</v>
       </c>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7111,6 +7111,78 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-529</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/23/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Libertad 820</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.384097</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.598913</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -7132,7 +7132,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ICD30189941</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Optical Power</t>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,27 +1202,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1253,20 +1253,16 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.426169</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.579697</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1278,27 +1274,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,7 +1309,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1321,28 +1317,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1354,17 +1350,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1374,7 +1370,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1389,7 +1385,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1411,10 +1407,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1430,27 +1426,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1465,7 +1461,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1478,7 +1474,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,14 +1483,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1506,27 +1502,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1541,7 +1537,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1554,7 +1550,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1563,46 +1559,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1617,11 +1613,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1630,7 +1626,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1639,46 +1635,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1693,7 +1689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1715,10 +1711,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.447022</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.575873</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1734,27 +1730,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1769,11 +1765,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1782,7 +1778,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1791,46 +1787,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.440625</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.625499</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1840,16 +1836,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1867,46 +1863,46 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.496935</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.599084</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1921,7 +1917,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1934,7 +1930,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1943,10 +1939,10 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.435755</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.621286</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,27 +1958,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1992,12 +1988,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2010,7 +2006,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2019,46 +2015,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.400156</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.631369</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2073,7 +2069,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2095,14 +2091,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.402062</v>
+        <v>-58.435755</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.635143</v>
+        <v>-34.621286</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2114,27 +2110,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2149,7 +2145,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2162,7 +2158,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2171,14 +2167,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2190,27 +2186,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2225,7 +2221,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2238,55 +2234,55 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2301,7 +2297,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2323,46 +2319,46 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2377,11 +2373,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2395,50 +2391,50 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2453,11 +2449,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2475,46 +2471,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2529,11 +2525,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2551,14 +2547,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2570,27 +2566,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2600,12 +2596,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2623,14 +2623,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.483821</v>
+        <v>-58.403583</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.677698</v>
+        <v>-34.591604</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2642,27 +2642,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2695,50 +2695,50 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.485232</v>
+        <v>-58.439791</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.611573</v>
+        <v>-34.61969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,14 +2748,10 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -2775,14 +2771,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.445131</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.572117</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2794,7 +2790,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2804,17 +2800,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2825,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2837,7 +2833,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2847,50 +2843,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.425764</v>
+        <v>-58.485232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.604359</v>
+        <v>-34.611573</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2901,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2913,12 +2909,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2927,14 +2923,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.439751</v>
+        <v>-58.445131</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.609908</v>
+        <v>-34.572117</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,27 +2942,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2977,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2989,7 +2985,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3003,14 +2999,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.43607</v>
+        <v>-58.425764</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.61926</v>
+        <v>-34.604359</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3022,7 +3018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3032,17 +3028,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3053,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3065,7 +3061,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3079,14 +3075,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.375515</v>
+        <v>-58.439751</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.634393</v>
+        <v>-34.609908</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3098,27 +3094,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3133,7 +3129,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3141,7 +3137,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3155,46 +3151,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.451203</v>
+        <v>-58.43607</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.576561</v>
+        <v>-34.61926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3205,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,14 +3227,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.415839</v>
+        <v>-58.375515</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.599291</v>
+        <v>-34.634393</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3250,27 +3246,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3307,10 +3303,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.440177</v>
+        <v>-58.451203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.56291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3326,27 +3322,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3357,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3383,14 +3379,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.469148</v>
+        <v>-58.415839</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.687883</v>
+        <v>-34.599291</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,27 +3398,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3437,7 +3433,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3450,7 +3446,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3459,46 +3455,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.395063</v>
+        <v>-58.440177</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.606257</v>
+        <v>-34.56291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3513,7 +3509,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3521,7 +3517,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3535,10 +3531,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.429977</v>
+        <v>-58.469148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.615514</v>
+        <v>-34.687883</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3554,7 +3550,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3564,17 +3560,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3585,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3597,12 +3593,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,10 +3607,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3630,27 +3626,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3661,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3673,12 +3669,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3687,14 +3683,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.416562</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590589</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3706,27 +3702,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3737,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3749,7 +3745,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3763,14 +3759,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.429972</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.632042</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3782,7 +3778,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3788,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3813,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3830,7 +3826,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3839,26 +3835,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.47888</v>
+        <v>-58.416562</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.571108</v>
+        <v>-34.590589</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3864,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3889,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3915,14 +3911,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.443196</v>
+        <v>-58.429972</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.618534</v>
+        <v>-34.632042</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3930,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3940,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3969,7 +3965,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3982,7 +3978,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3991,26 +3987,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422268</v>
+        <v>-58.47888</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.627754</v>
+        <v>-34.571108</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4020,17 +4016,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4045,7 +4041,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4058,7 +4054,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4067,14 +4063,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.423148</v>
+        <v>-58.443196</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.576964</v>
+        <v>-34.618534</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4086,7 +4082,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4096,17 +4092,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4116,16 +4112,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4134,7 +4130,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4143,14 +4139,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.406585</v>
+        <v>-58.422268</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.592933</v>
+        <v>-34.627754</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4162,7 +4158,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4172,17 +4168,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4193,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4210,55 +4206,55 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.51232</v>
+        <v>-58.423148</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.595637</v>
+        <v>-34.576964</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4268,16 +4264,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4286,7 +4282,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4295,46 +4291,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483104</v>
+        <v>-58.406585</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.572353</v>
+        <v>-34.592933</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4349,7 +4345,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4357,7 +4353,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4371,14 +4367,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.483927</v>
+        <v>-58.51232</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.570689</v>
+        <v>-34.595637</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4390,27 +4386,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4447,14 +4443,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.501766</v>
+        <v>-58.483104</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.574369</v>
+        <v>-34.572353</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4466,27 +4462,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4497,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4509,7 +4505,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4519,30 +4515,30 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.467789</v>
+        <v>-58.483927</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.68463</v>
+        <v>-34.570689</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4552,17 +4548,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4573,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4590,7 +4586,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4599,36 +4595,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.423551</v>
+        <v>-58.501766</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581258</v>
+        <v>-34.574369</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4638,7 +4634,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4649,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4675,10 +4671,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4694,27 +4690,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4725,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4742,23 +4738,23 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.477944</v>
+        <v>-58.423551</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.675149</v>
+        <v>-34.581258</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4770,7 +4766,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4780,17 +4776,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4801,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4827,10 +4823,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.4212</v>
+        <v>-58.468182</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.623575</v>
+        <v>-34.685231</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4846,27 +4842,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4877,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4899,18 +4895,18 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.362579</v>
+        <v>-58.477944</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.635096</v>
+        <v>-34.675149</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4922,27 +4918,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4953,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4965,7 +4961,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4975,30 +4971,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5008,17 +5004,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5033,7 +5029,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5055,14 +5051,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.425845</v>
+        <v>-58.362579</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.616562</v>
+        <v>-34.635096</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5074,7 +5070,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5084,17 +5080,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5109,7 +5105,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5117,7 +5113,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5127,28 +5123,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.640099</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5166,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5181,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5195,10 +5203,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,17 +5222,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5234,7 +5242,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5257,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5270,27 +5278,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>-58.427424</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-34.601217</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5300,7 +5296,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5310,7 +5306,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5347,10 +5343,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,7 +5362,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5376,7 +5372,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5386,7 +5382,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5423,10 +5419,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5442,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5485,7 +5481,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5499,10 +5495,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5518,17 +5514,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5538,7 +5534,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5561,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,10 +5571,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5594,27 +5590,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5637,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5647,50 +5643,50 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5713,7 +5709,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,18 +5719,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5746,27 +5742,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5789,7 +5785,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5803,14 +5799,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5822,7 +5818,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5832,17 +5828,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5865,28 +5861,28 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.400169</v>
+        <v>-58.44848</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.617784</v>
+        <v>-34.581338</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5898,27 +5894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5933,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5941,7 +5937,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5951,50 +5947,50 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6009,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6022,7 +6018,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6031,46 +6027,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.474467</v>
+        <v>-58.400169</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.624161</v>
+        <v>-34.617784</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6085,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6093,7 +6089,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6107,10 +6103,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.432644</v>
+        <v>-58.425296</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.595434</v>
+        <v>-34.578706</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6126,27 +6122,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6161,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6174,7 +6170,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6183,46 +6179,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.401827</v>
+        <v>-58.474467</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.617667</v>
+        <v>-34.624161</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6237,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6245,7 +6241,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6259,14 +6255,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.450359</v>
+        <v>-58.432644</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.643582</v>
+        <v>-34.595434</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6278,27 +6274,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6313,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6326,7 +6322,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6335,14 +6331,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.437378</v>
+        <v>-58.401827</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.62116</v>
+        <v>-34.617667</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6354,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6389,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6411,14 +6407,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.413941</v>
+        <v>-58.450359</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.57698</v>
+        <v>-34.643582</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6430,27 +6426,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6465,15 +6461,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6483,18 +6479,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.405749</v>
+        <v>-58.437378</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.58224</v>
+        <v>-34.62116</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6506,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,7 +6537,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6549,7 +6545,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,40 +6555,40 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.473179</v>
+        <v>-58.413941</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.629138</v>
+        <v>-34.57698</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6602,7 +6598,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6617,32 +6613,32 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.400188</v>
+        <v>-58.405749</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.583882</v>
+        <v>-34.58224</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6658,27 +6654,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6693,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6701,7 +6697,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6711,50 +6707,50 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.426322</v>
+        <v>-58.473179</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.600097</v>
+        <v>-34.629138</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6769,7 +6765,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6782,7 +6778,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6791,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.448523</v>
+        <v>-58.400188</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.62452</v>
+        <v>-34.583882</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6810,27 +6806,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6858,7 +6854,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6867,14 +6863,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.449</v>
+        <v>-58.426322</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.616077</v>
+        <v>-34.600097</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6886,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6939,18 +6935,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.363292</v>
+        <v>-58.448523</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.642869</v>
+        <v>-34.62452</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6962,27 +6958,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6997,7 +6993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7010,7 +7006,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7019,14 +7015,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.372941</v>
+        <v>-58.449</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.648341</v>
+        <v>-34.616077</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7038,27 +7034,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7073,7 +7069,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7091,18 +7087,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.432805</v>
+        <v>-58.363292</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.574345</v>
+        <v>-34.642869</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7114,76 +7110,304 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>-513</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/15/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Montes de Oca 1809</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>808240768</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.372941</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.648341</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-517</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7/16/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Av Dorrego 2721</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>808373635</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.432805</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.574345</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>-529</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>7/23/2025</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Libertad 820</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>ICD30189941</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="M91" t="n">
         <v>-58.384097</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N91" t="n">
         <v>-34.598913</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Recoleta</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>-531</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7/25/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Joaquin V Gonzalez 4632</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>808530239</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.513643</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.594169</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,27 +1202,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.395656</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.590364</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1274,27 +1274,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1325,20 +1325,16 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.446458</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.608741</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1350,27 +1346,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1385,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1393,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1426,17 +1422,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1446,7 +1442,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1474,7 +1470,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1483,10 +1479,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1502,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1537,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1559,14 +1555,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1578,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1613,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1626,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1635,46 +1631,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1689,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1702,7 +1698,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1711,46 +1707,46 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1787,26 +1783,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.421741</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.584789</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1816,17 +1812,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1841,7 +1837,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1863,46 +1859,46 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.450579</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.607673</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1917,11 +1913,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1930,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1939,14 +1935,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1958,27 +1954,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,7 +1984,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2006,7 +2002,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2015,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.440625</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.625499</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2064,12 +2060,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2091,46 +2087,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.435755</v>
+        <v>-58.496935</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.621286</v>
+        <v>-34.599084</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2145,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2158,7 +2154,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2167,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2186,17 +2182,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2206,7 +2202,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2221,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2234,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2243,10 +2239,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2262,7 +2258,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2272,17 +2268,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2297,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2310,7 +2306,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2319,14 +2315,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2338,27 +2334,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2373,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2391,50 +2387,50 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2449,7 +2445,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2467,14 +2463,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.496255</v>
+        <v>-58.506348</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.650599</v>
+        <v>-34.607461</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2490,27 +2486,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2525,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2547,36 +2543,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.371855</v>
+        <v>-58.496255</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.646958</v>
+        <v>-34.650599</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2586,7 +2582,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2601,7 +2597,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2623,14 +2619,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2642,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,11 +2673,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2699,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2718,7 +2714,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2728,17 +2724,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2751,7 +2747,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2771,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.441405</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.594348</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2790,27 +2790,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2843,50 +2843,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485232</v>
+        <v>-58.439791</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.611573</v>
+        <v>-34.61969</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2896,14 +2896,10 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.445131</v>
+        <v>-58.483821</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572117</v>
+        <v>-34.677698</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2942,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2952,17 +2948,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2977,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2985,7 +2981,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2995,50 +2991,50 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425764</v>
+        <v>-58.485232</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604359</v>
+        <v>-34.611573</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3053,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3061,12 +3057,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3075,14 +3071,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.439751</v>
+        <v>-58.445131</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.609908</v>
+        <v>-34.572117</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3094,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3129,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3137,7 +3133,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3151,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.43607</v>
+        <v>-58.425764</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61926</v>
+        <v>-34.604359</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3170,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3180,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3205,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3213,7 +3209,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3227,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.375515</v>
+        <v>-58.439751</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634393</v>
+        <v>-34.609908</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3246,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3281,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3289,7 +3285,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3303,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.451203</v>
+        <v>-58.43607</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.576561</v>
+        <v>-34.61926</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3357,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3379,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.415839</v>
+        <v>-58.375515</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.599291</v>
+        <v>-34.634393</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3398,27 +3394,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3433,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3455,10 +3451,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.440177</v>
+        <v>-58.451203</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3474,27 +3470,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3509,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3531,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.469148</v>
+        <v>-58.415839</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.687883</v>
+        <v>-34.599291</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3550,27 +3546,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3585,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3598,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3607,46 +3603,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.440177</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.56291</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3661,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3669,7 +3665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3683,10 +3679,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.469148</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.687883</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3702,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3712,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3737,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3745,12 +3741,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3759,10 +3755,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3778,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3813,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3821,12 +3817,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3835,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416562</v>
+        <v>-58.429977</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590589</v>
+        <v>-34.615514</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3854,27 +3850,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3889,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3897,7 +3893,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3911,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.429972</v>
+        <v>-58.421623</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.632042</v>
+        <v>-34.614541</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3930,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3940,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3965,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3978,7 +3974,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3987,26 +3983,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.47888</v>
+        <v>-58.416562</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.571108</v>
+        <v>-34.590589</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4016,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4041,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4063,14 +4059,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.443196</v>
+        <v>-58.429972</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618534</v>
+        <v>-34.632042</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4082,7 +4078,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4092,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4117,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4130,7 +4126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4139,26 +4135,26 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.422268</v>
+        <v>-58.47888</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.627754</v>
+        <v>-34.571108</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4168,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4193,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4206,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4215,14 +4211,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423148</v>
+        <v>-58.443196</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.576964</v>
+        <v>-34.618534</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4234,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4244,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4264,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4282,7 +4278,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4291,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406585</v>
+        <v>-58.422268</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592933</v>
+        <v>-34.627754</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4310,7 +4306,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4320,17 +4316,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4345,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4358,55 +4354,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.51232</v>
+        <v>-58.423148</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.595637</v>
+        <v>-34.576964</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4416,16 +4412,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4434,7 +4430,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4443,46 +4439,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.483104</v>
+        <v>-58.406585</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.572353</v>
+        <v>-34.592933</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4497,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4505,7 +4501,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4519,14 +4515,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.483927</v>
+        <v>-58.51232</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.570689</v>
+        <v>-34.595637</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4538,27 +4534,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4595,14 +4591,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.501766</v>
+        <v>-58.483104</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.574369</v>
+        <v>-34.572353</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4614,27 +4610,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4649,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4657,7 +4653,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4667,30 +4663,30 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.467789</v>
+        <v>-58.483927</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.68463</v>
+        <v>-34.570689</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4700,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4725,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4738,7 +4734,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4747,36 +4743,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.423551</v>
+        <v>-58.501766</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581258</v>
+        <v>-34.574369</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4786,7 +4782,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4801,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4823,10 +4819,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.468182</v>
+        <v>-58.467789</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.685231</v>
+        <v>-34.68463</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4842,27 +4838,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4877,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4890,23 +4886,23 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.477944</v>
+        <v>-58.423551</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.675149</v>
+        <v>-34.581258</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4918,7 +4914,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4928,17 +4924,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4953,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4975,10 +4971,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.4212</v>
+        <v>-58.468182</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.623575</v>
+        <v>-34.685231</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4994,27 +4990,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5029,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,18 +5043,18 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.362579</v>
+        <v>-58.477944</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635096</v>
+        <v>-34.675149</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5070,27 +5066,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5105,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5113,7 +5109,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5123,30 +5119,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.487371</v>
+        <v>-58.4212</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.640099</v>
+        <v>-34.623575</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5156,17 +5152,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5181,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5203,14 +5199,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425845</v>
+        <v>-58.362579</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.616562</v>
+        <v>-34.635096</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5222,7 +5218,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5232,17 +5228,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5257,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5265,7 +5261,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5275,28 +5271,40 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.487371</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.640099</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5306,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5321,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5343,10 +5351,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.416477</v>
+        <v>-58.425845</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.61303</v>
+        <v>-34.616562</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5362,17 +5370,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5382,7 +5390,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5397,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5419,14 +5427,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.427424</v>
+        <v>-58.420909</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601217</v>
+        <v>-34.626221</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5438,7 +5446,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5448,7 +5456,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5458,7 +5466,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5473,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5495,10 +5503,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.426665</v>
+        <v>-58.416477</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.598019</v>
+        <v>-34.61303</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5514,7 +5522,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5524,7 +5532,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5534,7 +5542,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5549,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5571,10 +5579,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.425478</v>
+        <v>-58.427424</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.601865</v>
+        <v>-34.601217</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5590,27 +5598,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5625,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5633,7 +5641,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5647,10 +5655,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.440448</v>
+        <v>-58.426665</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.611223</v>
+        <v>-34.598019</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5666,17 +5674,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5686,7 +5694,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5701,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5709,7 +5717,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5723,10 +5731,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.422775</v>
+        <v>-58.425478</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.604135</v>
+        <v>-34.601865</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5742,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5777,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5785,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5795,50 +5803,50 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.497698</v>
+        <v>-58.440448</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.612038</v>
+        <v>-34.611223</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5853,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5861,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5871,18 +5879,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.44848</v>
+        <v>-58.422775</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.581338</v>
+        <v>-34.604135</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5894,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5929,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5951,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.448496</v>
+        <v>-58.497698</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58182</v>
+        <v>-34.612038</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5970,7 +5978,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5980,17 +5988,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6005,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6013,28 +6021,28 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.400169</v>
+        <v>-58.44848</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617784</v>
+        <v>-34.581338</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6046,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6081,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6089,7 +6097,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6099,50 +6107,50 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.425296</v>
+        <v>-58.448496</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.578706</v>
+        <v>-34.58182</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6157,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6170,7 +6178,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6179,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.474467</v>
+        <v>-58.400169</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.624161</v>
+        <v>-34.617784</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6233,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6241,7 +6249,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6255,10 +6263,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.432644</v>
+        <v>-58.425296</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.595434</v>
+        <v>-34.578706</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6274,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6309,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6322,7 +6330,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6331,46 +6339,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.401827</v>
+        <v>-58.474467</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.617667</v>
+        <v>-34.624161</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6385,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6393,7 +6401,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6407,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.450359</v>
+        <v>-58.432644</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.643582</v>
+        <v>-34.595434</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6426,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6461,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6474,7 +6482,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6483,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.437378</v>
+        <v>-58.401827</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.62116</v>
+        <v>-34.617667</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6502,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6537,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6559,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.413941</v>
+        <v>-58.450359</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.57698</v>
+        <v>-34.643582</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6578,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6613,15 +6621,15 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6631,18 +6639,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.405749</v>
+        <v>-58.437378</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.58224</v>
+        <v>-34.62116</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6654,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6689,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6697,7 +6705,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6707,40 +6715,40 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473179</v>
+        <v>-58.413941</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.629138</v>
+        <v>-34.57698</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6750,7 +6758,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6765,32 +6773,32 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.400188</v>
+        <v>-58.405749</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.583882</v>
+        <v>-34.58224</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6806,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6841,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6849,7 +6857,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6859,50 +6867,50 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.426322</v>
+        <v>-58.473179</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.600097</v>
+        <v>-34.629138</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6917,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6930,7 +6938,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6939,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448523</v>
+        <v>-58.400188</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.62452</v>
+        <v>-34.583882</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6958,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7006,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7015,14 +7023,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.449</v>
+        <v>-58.426322</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.616077</v>
+        <v>-34.600097</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7034,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7087,18 +7095,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.363292</v>
+        <v>-58.448523</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.642869</v>
+        <v>-34.62452</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7110,27 +7118,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7145,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7158,7 +7166,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7167,14 +7175,14 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.372941</v>
+        <v>-58.449</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.648341</v>
+        <v>-34.616077</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7186,27 +7194,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7221,7 +7229,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7239,18 +7247,18 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.432805</v>
+        <v>-58.363292</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.574345</v>
+        <v>-34.642869</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7262,27 +7270,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7297,7 +7305,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -7319,14 +7327,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.384097</v>
+        <v>-58.372941</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.598913</v>
+        <v>-34.648341</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7338,74 +7346,226 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>-517</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7/16/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Av Dorrego 2721</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>808373635</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.432805</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.574345</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>-529</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>7/23/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Libertad 820</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ICD30189941</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>-58.384097</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-34.598913</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>-531</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>7/25/2025</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>808530239</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="M94" t="n">
         <v>-58.513643</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N94" t="n">
         <v>-34.594169</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3/7/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1378</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>782794907</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,16 +548,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nodo transferido, retirar columna</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.405474</v>
+        <v>-58.406882</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.593608</v>
+        <v>-34.588287</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -594,17 +594,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.406882</v>
+        <v>-58.40589</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.588287</v>
+        <v>-34.584156</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -670,27 +670,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -727,46 +727,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.40589</v>
+        <v>-58.498448</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.584156</v>
+        <v>-34.595287</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -789,60 +789,60 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.498448</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.595287</v>
+        <v>-34.599935</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -865,28 +865,28 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.41606</v>
+        <v>-58.413803</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.599935</v>
+        <v>-34.590308</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -898,17 +898,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -941,12 +941,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.413803</v>
+        <v>-58.412544</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.590308</v>
+        <v>-34.590435</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1017,24 +1017,24 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.412544</v>
+        <v>-58.432085</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.590435</v>
+        <v>-34.60178</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1107,14 +1107,14 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.432085</v>
+        <v>-58.378613</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.60178</v>
+        <v>-34.6349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1126,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,28 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.378613</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.6349</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1202,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1232,12 +1228,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1245,24 +1241,24 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.395656</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.590364</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1274,27 +1270,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1325,16 +1321,20 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M12" t="n">
-        <v>-58.446458</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.608741</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1346,27 +1346,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1389,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.426169</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.579697</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,17 +1422,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.425997</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.620454</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,14 +1555,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.428283</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.601207</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1574,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,46 +1631,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.443626</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.621032</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1707,46 +1707,46 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.450789</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.577949</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1783,26 +1783,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.421741</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.584789</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1859,46 +1859,46 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.450579</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.607673</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,11 +1913,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,14 +1935,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.447022</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.575873</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1954,27 +1954,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2011,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.440625</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.625499</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2060,12 +2060,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,46 +2087,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.496935</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.599084</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2163,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.435755</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.621286</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2239,14 +2239,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.400156</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.631369</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2258,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2306,55 +2306,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.402062</v>
+        <v>-58.506348</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.635143</v>
+        <v>-34.607461</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2391,46 +2391,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.443039</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.612262</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2463,50 +2463,50 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.506348</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.607461</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2543,46 +2543,46 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.496255</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.650599</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,16 +2592,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2619,14 +2619,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.371855</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.646958</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2638,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.403583</v>
+        <v>-58.439791</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.591604</v>
+        <v>-34.61969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2724,17 +2724,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2747,11 +2747,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2790,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2825,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2833,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2843,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439791</v>
+        <v>-58.485232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61969</v>
+        <v>-34.611573</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2896,10 +2892,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+        </is>
+      </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.483821</v>
+        <v>-58.445131</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.677698</v>
+        <v>-34.572117</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2948,17 +2948,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2991,50 +2991,50 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.485232</v>
+        <v>-58.425764</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.611573</v>
+        <v>-34.604359</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3071,14 +3071,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.445131</v>
+        <v>-58.439751</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.572117</v>
+        <v>-34.609908</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3090,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.425764</v>
+        <v>-58.43607</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.604359</v>
+        <v>-34.61926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3176,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.439751</v>
+        <v>-58.375515</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.609908</v>
+        <v>-34.634393</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3299,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.43607</v>
+        <v>-58.451203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.61926</v>
+        <v>-34.576561</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,27 +3394,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.451203</v>
+        <v>-58.440177</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.576561</v>
+        <v>-34.56291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3470,27 +3470,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3527,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.415839</v>
+        <v>-58.469148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.599291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,27 +3546,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,46 +3603,46 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.440177</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.56291</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.469148</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.687883</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.395063</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.606257</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3774,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.429977</v>
+        <v>-58.416562</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.615514</v>
+        <v>-34.590589</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,27 +3850,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.421623</v>
+        <v>-58.429972</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.614541</v>
+        <v>-34.632042</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3983,26 +3983,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.416562</v>
+        <v>-58.47888</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.590589</v>
+        <v>-34.571108</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,14 +4059,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.429972</v>
+        <v>-58.443196</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.632042</v>
+        <v>-34.618534</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4135,26 +4135,26 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.47888</v>
+        <v>-58.422268</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.571108</v>
+        <v>-34.627754</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,14 +4211,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.443196</v>
+        <v>-58.423148</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.618534</v>
+        <v>-34.576964</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4287,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.422268</v>
+        <v>-58.406585</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.627754</v>
+        <v>-34.592933</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4354,55 +4354,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.423148</v>
+        <v>-58.51232</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.576964</v>
+        <v>-34.595637</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4412,16 +4412,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4439,46 +4439,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.406585</v>
+        <v>-58.483104</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.592933</v>
+        <v>-34.572353</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4515,14 +4515,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.51232</v>
+        <v>-58.483927</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.595637</v>
+        <v>-34.570689</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4534,27 +4534,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4591,14 +4591,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.483104</v>
+        <v>-58.501766</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.572353</v>
+        <v>-34.574369</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4610,27 +4610,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4663,30 +4663,30 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.483927</v>
+        <v>-58.467789</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.570689</v>
+        <v>-34.68463</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4743,36 +4743,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.501766</v>
+        <v>-58.423551</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574369</v>
+        <v>-34.581258</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.467789</v>
+        <v>-58.468182</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.68463</v>
+        <v>-34.685231</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4838,27 +4838,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4886,23 +4886,23 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.423551</v>
+        <v>-58.477944</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.581258</v>
+        <v>-34.675149</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4914,7 +4914,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4924,17 +4924,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.468182</v>
+        <v>-58.4212</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.685231</v>
+        <v>-34.623575</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4990,27 +4990,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5043,18 +5043,18 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.477944</v>
+        <v>-58.362579</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.675149</v>
+        <v>-34.635096</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,27 +5066,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5119,30 +5119,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.4212</v>
+        <v>-58.487371</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.623575</v>
+        <v>-34.640099</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5152,17 +5152,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5199,14 +5199,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.362579</v>
+        <v>-58.425845</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.635096</v>
+        <v>-34.616562</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5218,7 +5218,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5228,17 +5228,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5271,40 +5271,40 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.487371</v>
+        <v>-58.420909</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.640099</v>
+        <v>-34.626221</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5351,10 +5351,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.425845</v>
+        <v>-58.416477</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.616562</v>
+        <v>-34.61303</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5370,17 +5370,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5427,14 +5427,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.420909</v>
+        <v>-58.427424</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.626221</v>
+        <v>-34.601217</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5446,7 +5446,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.416477</v>
+        <v>-58.426665</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.61303</v>
+        <v>-34.598019</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5579,10 +5579,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.427424</v>
+        <v>-58.425478</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.601217</v>
+        <v>-34.601865</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5598,27 +5598,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5655,10 +5655,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.426665</v>
+        <v>-58.440448</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.598019</v>
+        <v>-34.611223</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5674,17 +5674,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425478</v>
+        <v>-58.422775</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.601865</v>
+        <v>-34.604135</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5750,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5803,50 +5803,50 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.440448</v>
+        <v>-58.497698</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.611223</v>
+        <v>-34.612038</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5879,18 +5879,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.422775</v>
+        <v>-58.44848</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.604135</v>
+        <v>-34.581338</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5902,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5959,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.497698</v>
+        <v>-58.448496</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.612038</v>
+        <v>-34.58182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5988,17 +5988,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6021,28 +6021,28 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.44848</v>
+        <v>-58.400169</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.581338</v>
+        <v>-34.617784</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6107,50 +6107,50 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.448496</v>
+        <v>-58.425296</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.58182</v>
+        <v>-34.578706</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6187,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.400169</v>
+        <v>-58.474467</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.617784</v>
+        <v>-34.624161</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.425296</v>
+        <v>-58.432644</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.578706</v>
+        <v>-34.595434</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6282,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6339,46 +6339,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.474467</v>
+        <v>-58.401827</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.624161</v>
+        <v>-34.617667</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6415,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.432644</v>
+        <v>-58.450359</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.595434</v>
+        <v>-34.643582</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6491,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.401827</v>
+        <v>-58.437378</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.617667</v>
+        <v>-34.62116</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6567,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.450359</v>
+        <v>-58.413941</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.643582</v>
+        <v>-34.57698</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,15 +6621,15 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6639,18 +6639,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.437378</v>
+        <v>-58.405749</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.62116</v>
+        <v>-34.58224</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6715,40 +6715,40 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.413941</v>
+        <v>-58.473179</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.57698</v>
+        <v>-34.629138</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,32 +6773,32 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.405749</v>
+        <v>-58.400188</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.58224</v>
+        <v>-34.583882</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6814,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6867,50 +6867,50 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.473179</v>
+        <v>-58.426322</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.629138</v>
+        <v>-34.600097</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6947,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.400188</v>
+        <v>-58.448523</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.583882</v>
+        <v>-34.62452</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,14 +7023,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.426322</v>
+        <v>-58.449</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.600097</v>
+        <v>-34.616077</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7042,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7095,18 +7095,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.448523</v>
+        <v>-58.363292</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.62452</v>
+        <v>-34.642869</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7118,27 +7118,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7175,14 +7175,14 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.449</v>
+        <v>-58.372941</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.616077</v>
+        <v>-34.648341</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7194,27 +7194,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7247,18 +7247,18 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.363292</v>
+        <v>-58.432805</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.642869</v>
+        <v>-34.574345</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7270,27 +7270,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -7327,14 +7327,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.372941</v>
+        <v>-58.384097</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.648341</v>
+        <v>-34.598913</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7346,27 +7346,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -7403,169 +7403,17 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.432805</v>
+        <v>-58.513643</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.574345</v>
+        <v>-34.594169</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>-529</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>7/23/2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Libertad 820</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ICD30189941</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-58.384097</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-34.598913</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>-531</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Joaquin V Gonzalez 4632</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>808530239</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>-58.513643</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-34.594169</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.446458</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.608741</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,16 +1249,20 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.426169</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.579697</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,27 +1274,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1309,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,28 +1317,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.425997</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.620454</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1346,17 +1350,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1370,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1385,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1403,10 +1407,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.428283</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.601207</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1422,27 +1426,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1461,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1470,7 +1474,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1479,14 +1483,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.443626</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.621032</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,27 +1502,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1537,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1550,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,46 +1559,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.450789</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.577949</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,11 +1613,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1622,7 +1626,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,46 +1635,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.421741</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.584789</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,7 +1689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1707,26 +1711,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.450579</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.607673</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1736,17 +1740,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,7 +1765,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1783,46 +1787,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.447022</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.575873</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,11 +1841,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1850,7 +1854,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,14 +1863,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.440625</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.625499</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1878,27 +1882,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1917,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1926,7 +1930,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,14 +1939,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.400156</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.631369</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1954,27 +1958,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,12 +1988,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2011,46 +2015,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.402062</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.635143</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2069,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2078,7 +2082,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,14 +2091,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.443039</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.612262</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2106,27 +2110,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2145,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2154,55 +2158,55 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.506348</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.607461</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2221,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2239,46 +2243,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.496255</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.650599</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,11 +2297,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2311,50 +2315,50 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506348</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.607461</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,11 +2373,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2391,46 +2395,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.496255</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.650599</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2449,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,14 +2471,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.371855</v>
+        <v>-58.439791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.646958</v>
+        <v>-34.61969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,27 +2490,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,15 +2525,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2539,50 +2543,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.403583</v>
+        <v>-58.485232</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.591604</v>
+        <v>-34.611573</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,12 +2596,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2619,10 +2623,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.441405</v>
+        <v>-58.445131</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594348</v>
+        <v>-34.572117</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2638,27 +2642,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2673,7 +2677,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2695,14 +2699,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.439791</v>
+        <v>-58.425764</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61969</v>
+        <v>-34.604359</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2718,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,21 +2748,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Aplomador</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2775,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.439751</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.609908</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2794,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2829,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2839,50 +2847,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485232</v>
+        <v>-58.43607</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.611573</v>
+        <v>-34.61926</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2905,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2910,7 +2918,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2919,14 +2927,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.445131</v>
+        <v>-58.375515</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572117</v>
+        <v>-34.634393</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2938,27 +2946,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2981,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2995,46 +3003,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425764</v>
+        <v>-58.451203</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604359</v>
+        <v>-34.576561</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3065,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,10 +3079,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.439751</v>
+        <v>-58.415839</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.609908</v>
+        <v>-34.599291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3090,27 +3098,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3133,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3133,7 +3141,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3147,46 +3155,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.43607</v>
+        <v>-58.440177</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61926</v>
+        <v>-34.56291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3209,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3223,14 +3231,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.375515</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634393</v>
+        <v>-34.687883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3250,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3285,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3290,7 +3298,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3299,46 +3307,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.451203</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.576561</v>
+        <v>-34.606257</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3361,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3361,7 +3369,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3375,14 +3383,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.415839</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.599291</v>
+        <v>-34.615514</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,27 +3402,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3437,7 +3445,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3451,46 +3459,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.440177</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56291</v>
+        <v>-34.614541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3513,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3518,7 +3526,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3527,14 +3535,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.469148</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.687883</v>
+        <v>-34.590589</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,27 +3554,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3589,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3602,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3611,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.429972</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.632042</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,27 +3630,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3665,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,7 +3673,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3679,46 +3687,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.47888</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.571108</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3741,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3741,7 +3749,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3755,10 +3763,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.443196</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.618534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3774,7 +3782,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3792,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3817,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3822,7 +3830,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3839,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416562</v>
+        <v>-58.422268</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590589</v>
+        <v>-34.627754</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3858,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3868,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3893,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3906,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3915,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.429972</v>
+        <v>-58.423148</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.632042</v>
+        <v>-34.576964</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3934,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3944,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3969,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,18 +3987,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.47888</v>
+        <v>-58.51232</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.571108</v>
+        <v>-34.595637</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,27 +4010,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4045,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,46 +4067,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.443196</v>
+        <v>-58.483104</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618534</v>
+        <v>-34.572353</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4121,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4121,60 +4129,60 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.422268</v>
+        <v>-58.483927</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.627754</v>
+        <v>-34.570689</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4197,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4210,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,46 +4219,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423148</v>
+        <v>-58.501766</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.576964</v>
+        <v>-34.574369</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4268,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4278,7 +4286,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4287,14 +4295,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406585</v>
+        <v>-58.467789</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592933</v>
+        <v>-34.68463</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4306,27 +4314,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4349,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4354,55 +4362,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.51232</v>
+        <v>-58.423551</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.595637</v>
+        <v>-34.581258</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4425,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4439,46 +4447,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.483104</v>
+        <v>-58.468182</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.572353</v>
+        <v>-34.685231</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4501,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4501,7 +4509,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4515,46 +4523,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.483927</v>
+        <v>-58.477944</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.570689</v>
+        <v>-34.675149</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4591,46 +4599,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.501766</v>
+        <v>-58.4212</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.574369</v>
+        <v>-34.623575</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4653,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4667,14 +4675,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.467789</v>
+        <v>-58.362579</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.68463</v>
+        <v>-34.635096</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4686,27 +4694,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4729,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4729,60 +4737,60 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.423551</v>
+        <v>-58.487371</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581258</v>
+        <v>-34.640099</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4805,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4819,14 +4827,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.468182</v>
+        <v>-58.425845</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.685231</v>
+        <v>-34.616562</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,27 +4846,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4881,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4891,14 +4899,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.477944</v>
+        <v>-58.420909</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.675149</v>
+        <v>-34.626221</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4914,17 +4922,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4934,7 +4942,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4971,14 +4979,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.4212</v>
+        <v>-58.416477</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.623575</v>
+        <v>-34.61303</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4990,27 +4998,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5033,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,14 +5055,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.362579</v>
+        <v>-58.427424</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635096</v>
+        <v>-34.601217</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,27 +5074,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5109,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5117,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5119,40 +5127,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.487371</v>
+        <v>-58.426665</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.640099</v>
+        <v>-34.598019</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5162,7 +5170,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5185,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5199,10 +5207,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425845</v>
+        <v>-58.425478</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.616562</v>
+        <v>-34.601865</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5218,27 +5226,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5261,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5261,7 +5269,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5275,14 +5283,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.420909</v>
+        <v>-58.440448</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.626221</v>
+        <v>-34.611223</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5294,17 +5302,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5322,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5337,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,7 +5345,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5351,10 +5359,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.416477</v>
+        <v>-58.422775</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.61303</v>
+        <v>-34.604135</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5370,27 +5378,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5413,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5413,7 +5421,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5423,50 +5431,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.427424</v>
+        <v>-58.497698</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601217</v>
+        <v>-34.612038</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5489,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5489,7 +5497,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5499,18 +5507,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.426665</v>
+        <v>-58.44848</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.598019</v>
+        <v>-34.581338</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5522,27 +5530,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5565,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5565,7 +5573,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,50 +5583,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.425478</v>
+        <v>-58.448496</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.601865</v>
+        <v>-34.58182</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5641,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5641,12 +5649,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5655,10 +5663,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.440448</v>
+        <v>-58.400169</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.611223</v>
+        <v>-34.617784</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5674,27 +5682,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5717,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,7 +5725,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5731,14 +5739,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.422775</v>
+        <v>-58.425296</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.604135</v>
+        <v>-34.578706</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5750,27 +5758,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5793,7 +5801,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5803,14 +5811,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.497698</v>
+        <v>-58.474467</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.612038</v>
+        <v>-34.624161</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5826,27 +5834,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,7 +5877,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5879,14 +5887,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.44848</v>
+        <v>-58.432644</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.581338</v>
+        <v>-34.595434</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5902,27 +5910,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,60 +5953,60 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.448496</v>
+        <v>-58.401827</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58182</v>
+        <v>-34.617667</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6021,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6026,7 +6034,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6035,14 +6043,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.400169</v>
+        <v>-58.450359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617784</v>
+        <v>-34.643582</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,27 +6062,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6097,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6111,14 +6119,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.425296</v>
+        <v>-58.437378</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.578706</v>
+        <v>-34.62116</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,27 +6138,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6173,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6187,46 +6195,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.474467</v>
+        <v>-58.413941</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.624161</v>
+        <v>-34.57698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,15 +6249,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6259,18 +6267,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.432644</v>
+        <v>-58.405749</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.595434</v>
+        <v>-34.58224</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6282,27 +6290,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6325,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6325,60 +6333,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.401827</v>
+        <v>-58.473179</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.617667</v>
+        <v>-34.629138</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6401,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6406,7 +6414,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6415,14 +6423,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.450359</v>
+        <v>-58.400188</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.643582</v>
+        <v>-34.583882</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,27 +6442,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6491,14 +6499,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.437378</v>
+        <v>-58.426322</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.62116</v>
+        <v>-34.600097</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,27 +6518,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6553,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6567,14 +6575,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.413941</v>
+        <v>-58.448523</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.57698</v>
+        <v>-34.62452</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,27 +6594,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,36 +6629,36 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.405749</v>
+        <v>-58.449</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.58224</v>
+        <v>-34.616077</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,27 +6670,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6705,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6705,7 +6713,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6719,46 +6727,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473179</v>
+        <v>-58.363292</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.629138</v>
+        <v>-34.642869</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6781,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6786,7 +6794,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6795,14 +6803,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.400188</v>
+        <v>-58.372941</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.583882</v>
+        <v>-34.648341</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,27 +6822,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6857,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6871,14 +6879,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.426322</v>
+        <v>-58.432805</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.600097</v>
+        <v>-34.574345</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6898,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6933,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6947,14 +6955,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448523</v>
+        <v>-58.384097</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.62452</v>
+        <v>-34.598913</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,27 +6974,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7009,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7014,7 +7022,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,46 +7031,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.449</v>
+        <v>-58.513643</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.616077</v>
+        <v>-34.594169</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,7 +7085,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7085,7 +7093,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7095,325 +7103,21 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.363292</v>
+        <v>-58.505593</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.642869</v>
+        <v>-34.582601</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>-513</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Montes de Oca 1809</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808240768</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.372941</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.648341</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>-517</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Av Dorrego 2721</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808373635</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.432805</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.574345</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>-529</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>7/23/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Libertad 820</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ICD30189941</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-58.384097</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-34.598913</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>-531</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Joaquin V Gonzalez 4632</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>808530239</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-58.513643</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-34.594169</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.446458</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.608741</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,20 +1249,16 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.426169</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.579697</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1274,27 +1270,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1317,28 +1313,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1350,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1370,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1385,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1407,10 +1403,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1426,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1474,7 +1470,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1483,14 +1479,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1502,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1537,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1559,46 +1555,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1613,11 +1609,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1626,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1635,46 +1631,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1689,7 +1685,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1711,26 +1707,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.450579</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.607673</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1740,17 +1736,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1787,46 +1783,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.447022</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.575873</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1841,11 +1837,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1854,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1863,14 +1859,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1882,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1917,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1930,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1939,14 +1935,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.400156</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.631369</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1958,27 +1954,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,12 +1984,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2015,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.402062</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.635143</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2069,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2082,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2091,14 +2087,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2110,27 +2106,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2145,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2158,55 +2154,55 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2221,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2243,46 +2239,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2297,11 +2293,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2315,50 +2311,50 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2373,11 +2369,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2395,46 +2391,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2449,11 +2445,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2471,14 +2467,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2490,27 +2486,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2525,15 +2521,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2543,50 +2539,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.485232</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.611573</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,12 +2592,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2623,10 +2619,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.445131</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572117</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2642,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2673,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2699,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2718,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,25 +2744,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Aplomador</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2775,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.439751</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.609908</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2794,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2847,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.43607</v>
+        <v>-58.485232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61926</v>
+        <v>-34.611573</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2918,7 +2910,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2927,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.375515</v>
+        <v>-58.445131</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634393</v>
+        <v>-34.572117</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,27 +2938,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3003,46 +2995,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.451203</v>
+        <v>-58.425764</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.576561</v>
+        <v>-34.604359</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3065,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3079,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.415839</v>
+        <v>-58.439751</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.599291</v>
+        <v>-34.609908</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3098,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3133,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3141,7 +3133,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3155,46 +3147,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.440177</v>
+        <v>-58.43607</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.56291</v>
+        <v>-34.61926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.375515</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.634393</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3250,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3298,7 +3290,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3307,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.451203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.576561</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3369,7 +3361,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3383,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.415839</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.599291</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,27 +3394,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3437,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3445,7 +3437,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3459,46 +3451,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.440177</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.56291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3513,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3526,7 +3518,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3535,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.469148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.687883</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3554,27 +3546,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3602,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.429972</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.632042</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3630,27 +3622,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3673,7 +3665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3687,46 +3679,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.47888</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.571108</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3749,7 +3741,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3763,10 +3755,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3782,7 +3774,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3830,7 +3822,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3839,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422268</v>
+        <v>-58.416562</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627754</v>
+        <v>-34.590589</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3858,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3906,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3915,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.423148</v>
+        <v>-58.429972</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576964</v>
+        <v>-34.632042</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3969,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3987,18 +3979,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.51232</v>
+        <v>-58.47888</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.595637</v>
+        <v>-34.571108</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4010,27 +4002,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4045,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4067,46 +4059,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.483104</v>
+        <v>-58.443196</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.572353</v>
+        <v>-34.618534</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4121,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4129,60 +4121,60 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483927</v>
+        <v>-58.422268</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.570689</v>
+        <v>-34.627754</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4210,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4219,46 +4211,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.501766</v>
+        <v>-58.423148</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.574369</v>
+        <v>-34.576964</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4268,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4286,7 +4278,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4295,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.467789</v>
+        <v>-58.406585</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.68463</v>
+        <v>-34.592933</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4314,27 +4306,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4349,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4362,55 +4354,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.423551</v>
+        <v>-58.51232</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.581258</v>
+        <v>-34.595637</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4425,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4447,46 +4439,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.468182</v>
+        <v>-58.483104</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.685231</v>
+        <v>-34.572353</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4509,7 +4501,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4523,46 +4515,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.477944</v>
+        <v>-58.483927</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.675149</v>
+        <v>-34.570689</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4599,46 +4591,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.4212</v>
+        <v>-58.501766</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.623575</v>
+        <v>-34.574369</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4675,14 +4667,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.362579</v>
+        <v>-58.467789</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.635096</v>
+        <v>-34.68463</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4694,27 +4686,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4737,60 +4729,60 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487371</v>
+        <v>-58.423551</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640099</v>
+        <v>-34.581258</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4827,14 +4819,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425845</v>
+        <v>-58.468182</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.616562</v>
+        <v>-34.685231</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4846,27 +4838,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4899,14 +4891,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.420909</v>
+        <v>-58.477944</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.626221</v>
+        <v>-34.675149</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4922,17 +4914,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4942,7 +4934,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4979,14 +4971,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.416477</v>
+        <v>-58.4212</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.61303</v>
+        <v>-34.623575</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4998,27 +4990,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5033,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5055,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.427424</v>
+        <v>-58.362579</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.601217</v>
+        <v>-34.635096</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5074,27 +5066,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5109,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5117,7 +5109,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5127,40 +5119,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.426665</v>
+        <v>-58.487371</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.598019</v>
+        <v>-34.640099</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5170,7 +5162,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5185,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5207,10 +5199,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425478</v>
+        <v>-58.425845</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601865</v>
+        <v>-34.616562</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5226,27 +5218,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5261,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5269,7 +5261,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5283,14 +5275,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.440448</v>
+        <v>-58.420909</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.611223</v>
+        <v>-34.626221</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5302,17 +5294,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5322,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5337,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5345,7 +5337,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5359,10 +5351,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.422775</v>
+        <v>-58.416477</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.604135</v>
+        <v>-34.61303</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5378,27 +5370,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5413,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5421,7 +5413,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5431,50 +5423,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.427424</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.601217</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5489,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5497,7 +5489,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5507,18 +5499,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.426665</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.598019</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5530,27 +5522,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5565,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5573,7 +5565,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5583,50 +5575,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.425478</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.601865</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5641,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5649,12 +5641,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5663,10 +5655,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.440448</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.611223</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5682,27 +5674,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5725,7 +5717,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5739,14 +5731,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.422775</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.604135</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5758,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5801,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5811,14 +5803,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.497698</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.612038</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5834,27 +5826,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5869,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5877,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5887,14 +5879,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.44848</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.581338</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5910,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5953,60 +5945,60 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.448496</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.58182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6021,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6034,7 +6026,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6043,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.400169</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.617784</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6062,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6097,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6119,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.437378</v>
+        <v>-58.425296</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.62116</v>
+        <v>-34.578706</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6138,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6173,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6195,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.413941</v>
+        <v>-58.474467</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.57698</v>
+        <v>-34.624161</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6249,15 +6241,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6267,18 +6259,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.405749</v>
+        <v>-58.432644</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.58224</v>
+        <v>-34.595434</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6290,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6325,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6333,60 +6325,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.473179</v>
+        <v>-58.401827</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.629138</v>
+        <v>-34.617667</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6401,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6414,7 +6406,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6423,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.400188</v>
+        <v>-58.450359</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.583882</v>
+        <v>-34.643582</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6442,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6499,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.426322</v>
+        <v>-58.437378</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.600097</v>
+        <v>-34.62116</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6518,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6553,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6575,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.448523</v>
+        <v>-58.413941</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.62452</v>
+        <v>-34.57698</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6594,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6629,36 +6621,36 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.449</v>
+        <v>-58.405749</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.616077</v>
+        <v>-34.58224</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6670,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6705,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6713,7 +6705,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6727,46 +6719,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.363292</v>
+        <v>-58.473179</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.642869</v>
+        <v>-34.629138</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6781,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6794,7 +6786,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6803,14 +6795,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.372941</v>
+        <v>-58.400188</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.648341</v>
+        <v>-34.583882</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6822,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6857,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6879,14 +6871,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.432805</v>
+        <v>-58.426322</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.574345</v>
+        <v>-34.600097</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6898,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6933,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6955,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.384097</v>
+        <v>-58.448523</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.598913</v>
+        <v>-34.62452</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6974,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7009,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7022,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7031,93 +7023,473 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.513643</v>
+        <v>-58.449</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.594169</v>
+        <v>-34.616077</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-513</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/15/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Montes de Oca 1809</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>808240768</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.372941</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.648341</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-517</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7/16/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Av Dorrego 2721</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>808373635</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.432805</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.574345</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-529</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7/23/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Libertad 820</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ICD30189941</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.384097</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.598913</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>-531</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7/25/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Joaquin V Gonzalez 4632</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>808530239</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.513643</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.594169</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>6558</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>8/4/2025</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>NAZCA 5168</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>808703877</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>Aplomo</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="M93" t="n">
         <v>-58.505593</v>
       </c>
-      <c r="N88" t="n">
+      <c r="N93" t="n">
         <v>-34.582601</v>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7495,6 +7495,82 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>-548</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sucre 1533</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>-58.44649</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-34.558808</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -7518,7 +7518,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">ICD30326446 </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.446458</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.608741</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,16 +1249,20 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.426169</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.579697</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,27 +1274,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1309,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,28 +1317,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.425997</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.620454</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1346,17 +1350,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1370,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1385,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1403,10 +1407,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.428283</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.601207</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1422,27 +1426,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1461,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1470,7 +1474,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1479,14 +1483,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.443626</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.621032</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,27 +1502,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1537,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1550,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,46 +1559,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.450789</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.577949</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,11 +1613,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1622,7 +1626,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,46 +1635,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.421741</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.584789</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,7 +1689,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1707,26 +1711,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.450579</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.607673</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1736,17 +1740,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,7 +1765,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1783,46 +1787,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.447022</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.575873</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,11 +1841,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1850,7 +1854,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,14 +1863,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.440625</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.625499</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1878,27 +1882,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1917,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1926,7 +1930,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,14 +1939,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.400156</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.631369</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1954,27 +1958,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,12 +1988,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2011,46 +2015,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.402062</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.635143</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2069,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2078,7 +2082,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,14 +2091,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.443039</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.612262</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2106,27 +2110,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2145,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2154,55 +2158,55 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.506348</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.607461</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2221,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2239,46 +2243,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.496255</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.650599</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,11 +2297,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2311,50 +2315,50 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506348</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.607461</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,11 +2373,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2391,46 +2395,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.496255</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.650599</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2449,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,14 +2471,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.371855</v>
+        <v>-58.439791</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.646958</v>
+        <v>-34.61969</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,27 +2490,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,15 +2525,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2539,50 +2543,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.403583</v>
+        <v>-58.485232</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.591604</v>
+        <v>-34.611573</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,12 +2596,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2619,10 +2623,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.441405</v>
+        <v>-58.445131</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594348</v>
+        <v>-34.572117</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2638,27 +2642,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2673,7 +2677,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2695,14 +2699,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.439791</v>
+        <v>-58.425764</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61969</v>
+        <v>-34.604359</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2718,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,21 +2748,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Aplomador</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2775,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.439751</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.609908</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2794,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2829,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2839,50 +2847,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485232</v>
+        <v>-58.43607</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.611573</v>
+        <v>-34.61926</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2905,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2910,7 +2918,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2919,14 +2927,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.445131</v>
+        <v>-58.375515</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572117</v>
+        <v>-34.634393</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2938,27 +2946,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2981,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2995,46 +3003,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425764</v>
+        <v>-58.451203</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604359</v>
+        <v>-34.576561</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3065,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,10 +3079,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.439751</v>
+        <v>-58.415839</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.609908</v>
+        <v>-34.599291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3090,27 +3098,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3133,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3133,7 +3141,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3147,46 +3155,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.43607</v>
+        <v>-58.440177</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61926</v>
+        <v>-34.56291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3209,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3223,14 +3231,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.375515</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634393</v>
+        <v>-34.687883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3250,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3285,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3290,7 +3298,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3299,46 +3307,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.451203</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.576561</v>
+        <v>-34.606257</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3361,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3361,7 +3369,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3375,14 +3383,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.415839</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.599291</v>
+        <v>-34.615514</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,27 +3402,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3437,7 +3445,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3451,46 +3459,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.440177</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56291</v>
+        <v>-34.614541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3513,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3518,7 +3526,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3527,14 +3535,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.469148</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.687883</v>
+        <v>-34.590589</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,27 +3554,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3589,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3602,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3611,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.429972</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.632042</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,27 +3630,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3665,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,7 +3673,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3679,46 +3687,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.47888</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.571108</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3741,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3741,7 +3749,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3755,10 +3763,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.443196</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.618534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3774,7 +3782,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3792,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3817,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3822,7 +3830,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3839,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416562</v>
+        <v>-58.422268</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590589</v>
+        <v>-34.627754</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3858,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3868,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3893,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3906,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3915,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.429972</v>
+        <v>-58.423148</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.632042</v>
+        <v>-34.576964</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3934,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3944,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3969,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,18 +3987,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.47888</v>
+        <v>-58.51232</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.571108</v>
+        <v>-34.595637</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,27 +4010,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4045,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,46 +4067,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.443196</v>
+        <v>-58.483104</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618534</v>
+        <v>-34.572353</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4121,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4121,60 +4129,60 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.422268</v>
+        <v>-58.483927</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.627754</v>
+        <v>-34.570689</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4197,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4210,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,46 +4219,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423148</v>
+        <v>-58.501766</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.576964</v>
+        <v>-34.574369</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4268,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4278,7 +4286,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4287,14 +4295,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406585</v>
+        <v>-58.467789</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592933</v>
+        <v>-34.68463</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4306,27 +4314,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4349,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4354,55 +4362,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.51232</v>
+        <v>-58.423551</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.595637</v>
+        <v>-34.581258</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4425,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4439,46 +4447,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.483104</v>
+        <v>-58.468182</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.572353</v>
+        <v>-34.685231</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4501,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4501,7 +4509,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4515,46 +4523,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.483927</v>
+        <v>-58.477944</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.570689</v>
+        <v>-34.675149</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4591,46 +4599,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.501766</v>
+        <v>-58.4212</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.574369</v>
+        <v>-34.623575</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4653,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4667,14 +4675,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.467789</v>
+        <v>-58.362579</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.68463</v>
+        <v>-34.635096</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4686,27 +4694,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4729,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4729,60 +4737,60 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.423551</v>
+        <v>-58.487371</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581258</v>
+        <v>-34.640099</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4805,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4819,14 +4827,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.468182</v>
+        <v>-58.425845</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.685231</v>
+        <v>-34.616562</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,27 +4846,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4881,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4891,14 +4899,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.477944</v>
+        <v>-58.420909</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.675149</v>
+        <v>-34.626221</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4914,17 +4922,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4934,7 +4942,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4971,14 +4979,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.4212</v>
+        <v>-58.416477</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.623575</v>
+        <v>-34.61303</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4990,27 +4998,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5033,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,14 +5055,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.362579</v>
+        <v>-58.427424</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635096</v>
+        <v>-34.601217</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,27 +5074,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5109,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5117,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5119,40 +5127,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.487371</v>
+        <v>-58.426665</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.640099</v>
+        <v>-34.598019</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5162,7 +5170,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5185,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5199,10 +5207,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425845</v>
+        <v>-58.425478</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.616562</v>
+        <v>-34.601865</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5218,27 +5226,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5261,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5261,7 +5269,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5275,14 +5283,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.420909</v>
+        <v>-58.440448</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.626221</v>
+        <v>-34.611223</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5294,17 +5302,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5322,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5337,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,7 +5345,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5351,10 +5359,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.416477</v>
+        <v>-58.422775</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.61303</v>
+        <v>-34.604135</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5370,27 +5378,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5413,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5413,7 +5421,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5423,50 +5431,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.427424</v>
+        <v>-58.497698</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601217</v>
+        <v>-34.612038</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5489,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5489,7 +5497,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5499,18 +5507,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.426665</v>
+        <v>-58.44848</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.598019</v>
+        <v>-34.581338</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5522,27 +5530,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5565,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5565,7 +5573,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,50 +5583,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.425478</v>
+        <v>-58.448496</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.601865</v>
+        <v>-34.58182</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5641,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5641,12 +5649,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5655,10 +5663,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.440448</v>
+        <v>-58.400169</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.611223</v>
+        <v>-34.617784</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5674,27 +5682,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5717,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,7 +5725,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5731,14 +5739,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.422775</v>
+        <v>-58.425296</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.604135</v>
+        <v>-34.578706</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5750,27 +5758,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5793,7 +5801,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5803,14 +5811,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.497698</v>
+        <v>-58.474467</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.612038</v>
+        <v>-34.624161</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5826,27 +5834,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5869,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,7 +5877,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5879,14 +5887,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.44848</v>
+        <v>-58.432644</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.581338</v>
+        <v>-34.595434</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5902,27 +5910,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5945,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,60 +5953,60 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.448496</v>
+        <v>-58.401827</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58182</v>
+        <v>-34.617667</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6021,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6026,7 +6034,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6035,14 +6043,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.400169</v>
+        <v>-58.450359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617784</v>
+        <v>-34.643582</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,27 +6062,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6097,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6111,14 +6119,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.425296</v>
+        <v>-58.437378</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.578706</v>
+        <v>-34.62116</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,27 +6138,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6173,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6187,46 +6195,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.474467</v>
+        <v>-58.413941</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.624161</v>
+        <v>-34.57698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,15 +6249,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6259,18 +6267,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.432644</v>
+        <v>-58.405749</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.595434</v>
+        <v>-34.58224</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6282,27 +6290,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6325,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6325,60 +6333,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.401827</v>
+        <v>-58.473179</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.617667</v>
+        <v>-34.629138</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6401,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6406,7 +6414,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6415,14 +6423,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.450359</v>
+        <v>-58.400188</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.643582</v>
+        <v>-34.583882</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,27 +6442,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6491,14 +6499,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.437378</v>
+        <v>-58.426322</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.62116</v>
+        <v>-34.600097</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,27 +6518,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6553,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6567,14 +6575,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.413941</v>
+        <v>-58.448523</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.57698</v>
+        <v>-34.62452</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,27 +6594,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,36 +6629,36 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.405749</v>
+        <v>-58.449</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.58224</v>
+        <v>-34.616077</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,27 +6670,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6705,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6705,7 +6713,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6719,46 +6727,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473179</v>
+        <v>-58.363292</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.629138</v>
+        <v>-34.642869</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6781,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6786,7 +6794,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6795,14 +6803,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.400188</v>
+        <v>-58.372941</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.583882</v>
+        <v>-34.648341</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,27 +6822,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6857,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6871,14 +6879,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.426322</v>
+        <v>-58.432805</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.600097</v>
+        <v>-34.574345</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6898,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6933,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6947,14 +6955,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448523</v>
+        <v>-58.384097</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.62452</v>
+        <v>-34.598913</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,27 +6974,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7009,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7014,7 +7022,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,46 +7031,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.449</v>
+        <v>-58.513643</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.616077</v>
+        <v>-34.594169</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,7 +7085,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7085,7 +7093,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7095,50 +7103,50 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.363292</v>
+        <v>-58.505593</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.642869</v>
+        <v>-34.582601</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-548</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Sucre 1533</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t xml:space="preserve">ICD30326446 </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7153,7 +7161,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7161,7 +7169,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7175,46 +7183,46 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.372941</v>
+        <v>-58.44649</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.648341</v>
+        <v>-34.558808</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>5894</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>ALBARELLOS AV. 3100</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7229,15 +7237,15 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Reparacion de rienda</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7247,325 +7255,21 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.432805</v>
+        <v>-58.512533</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.574345</v>
+        <v>-34.579243</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>-529</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>7/23/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Libertad 820</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>ICD30189941</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-58.384097</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-34.598913</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>-531</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Joaquin V Gonzalez 4632</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>808530239</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-58.513643</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-34.594169</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>6558</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>8/4/2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>NAZCA 5168</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>808703877</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-58.505593</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-34.582601</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>-548</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>8/6/2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Sucre 1533</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD30326446 </t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>-58.44649</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-34.558808</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.446458</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.608741</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,20 +1249,16 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.426169</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.579697</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1274,27 +1270,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1317,28 +1313,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1350,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1370,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1385,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1407,10 +1403,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1426,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1474,7 +1470,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1483,14 +1479,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1502,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1537,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1550,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1559,46 +1555,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1613,11 +1609,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1626,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1635,46 +1631,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1689,7 +1685,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1711,26 +1707,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.450579</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.607673</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1740,17 +1736,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1787,46 +1783,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.447022</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.575873</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1841,11 +1837,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1854,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1863,14 +1859,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1882,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1917,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1930,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1939,14 +1935,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.400156</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.631369</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1958,27 +1954,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1988,12 +1984,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2015,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.402062</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.635143</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2069,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2082,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2091,14 +2087,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.443039</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.612262</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2110,27 +2106,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2145,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2158,55 +2154,55 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.506348</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.607461</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2221,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2243,46 +2239,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.496255</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.650599</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2297,11 +2293,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2315,50 +2311,50 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.371855</v>
+        <v>-58.506348</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.646958</v>
+        <v>-34.607461</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2373,11 +2369,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2395,46 +2391,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.403583</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591604</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2449,11 +2445,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2471,14 +2467,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2490,27 +2486,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2525,15 +2521,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2543,50 +2539,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.485232</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.611573</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,12 +2592,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2623,10 +2619,10 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.445131</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572117</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2642,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2673,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2699,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.425764</v>
+        <v>-58.439791</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604359</v>
+        <v>-34.61969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2718,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2748,25 +2744,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Aplomador</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2775,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.439751</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.609908</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2794,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2847,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.43607</v>
+        <v>-58.485232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61926</v>
+        <v>-34.611573</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2918,7 +2910,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2927,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.375515</v>
+        <v>-58.445131</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634393</v>
+        <v>-34.572117</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,27 +2938,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3003,46 +2995,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.451203</v>
+        <v>-58.425764</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.576561</v>
+        <v>-34.604359</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3065,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3079,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.415839</v>
+        <v>-58.439751</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.599291</v>
+        <v>-34.609908</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3098,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3133,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3141,7 +3133,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3155,46 +3147,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.440177</v>
+        <v>-58.43607</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.56291</v>
+        <v>-34.61926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3209,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3231,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.375515</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.634393</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3250,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3298,7 +3290,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3307,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.451203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.576561</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3369,7 +3361,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3383,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.415839</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.599291</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,27 +3394,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3437,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3445,7 +3437,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3459,46 +3451,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.440177</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.56291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3513,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3526,7 +3518,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3535,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.469148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.687883</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3554,27 +3546,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3602,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.429972</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.632042</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3630,27 +3622,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3673,7 +3665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3687,46 +3679,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.47888</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.571108</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3749,7 +3741,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3763,10 +3755,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.443196</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618534</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3782,7 +3774,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3830,7 +3822,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3839,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422268</v>
+        <v>-58.416562</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627754</v>
+        <v>-34.590589</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3858,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3906,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3915,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.423148</v>
+        <v>-58.429972</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576964</v>
+        <v>-34.632042</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3969,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3987,18 +3979,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.51232</v>
+        <v>-58.47888</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.595637</v>
+        <v>-34.571108</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4010,27 +4002,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4045,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4067,46 +4059,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.483104</v>
+        <v>-58.443196</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.572353</v>
+        <v>-34.618534</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4121,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4129,60 +4121,60 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483927</v>
+        <v>-58.422268</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.570689</v>
+        <v>-34.627754</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4210,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4219,46 +4211,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.501766</v>
+        <v>-58.423148</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.574369</v>
+        <v>-34.576964</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4268,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4286,7 +4278,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4295,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.467789</v>
+        <v>-58.406585</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.68463</v>
+        <v>-34.592933</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4314,27 +4306,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4349,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4362,55 +4354,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.423551</v>
+        <v>-58.51232</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.581258</v>
+        <v>-34.595637</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4425,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4447,46 +4439,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.468182</v>
+        <v>-58.483104</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.685231</v>
+        <v>-34.572353</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4509,7 +4501,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4523,46 +4515,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.477944</v>
+        <v>-58.483927</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.675149</v>
+        <v>-34.570689</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4599,46 +4591,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.4212</v>
+        <v>-58.501766</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.623575</v>
+        <v>-34.574369</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4675,14 +4667,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.362579</v>
+        <v>-58.467789</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.635096</v>
+        <v>-34.68463</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4694,27 +4686,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4737,60 +4729,60 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487371</v>
+        <v>-58.423551</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640099</v>
+        <v>-34.581258</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4827,14 +4819,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425845</v>
+        <v>-58.468182</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.616562</v>
+        <v>-34.685231</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4846,27 +4838,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4899,14 +4891,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.420909</v>
+        <v>-58.477944</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.626221</v>
+        <v>-34.675149</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4922,17 +4914,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4942,7 +4934,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4979,14 +4971,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.416477</v>
+        <v>-58.4212</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.61303</v>
+        <v>-34.623575</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4998,27 +4990,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5033,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5055,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.427424</v>
+        <v>-58.362579</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.601217</v>
+        <v>-34.635096</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5074,27 +5066,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5109,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5117,7 +5109,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5127,40 +5119,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.426665</v>
+        <v>-58.487371</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.598019</v>
+        <v>-34.640099</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5170,7 +5162,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5185,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5207,10 +5199,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425478</v>
+        <v>-58.425845</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601865</v>
+        <v>-34.616562</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5226,27 +5218,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5261,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5269,7 +5261,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5283,14 +5275,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.440448</v>
+        <v>-58.420909</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.611223</v>
+        <v>-34.626221</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5302,17 +5294,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5322,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5337,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5345,7 +5337,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5359,10 +5351,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.422775</v>
+        <v>-58.416477</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.604135</v>
+        <v>-34.61303</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5378,27 +5370,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5413,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5421,7 +5413,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5431,50 +5423,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.427424</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.601217</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5489,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5497,7 +5489,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5507,18 +5499,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.426665</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.598019</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5530,27 +5522,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5565,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5573,7 +5565,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5583,50 +5575,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.425478</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.601865</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5641,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5649,12 +5641,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5663,10 +5655,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.440448</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.611223</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5682,27 +5674,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5725,7 +5717,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5739,14 +5731,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.422775</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.604135</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5758,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5801,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5811,14 +5803,14 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.497698</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.612038</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5834,27 +5826,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5869,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5877,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5887,14 +5879,14 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.44848</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.581338</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5910,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5945,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5953,60 +5945,60 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.448496</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.58182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6021,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6034,7 +6026,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6043,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.400169</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.617784</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6062,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6097,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6119,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.437378</v>
+        <v>-58.425296</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.62116</v>
+        <v>-34.578706</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6138,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6173,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6195,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.413941</v>
+        <v>-58.474467</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.57698</v>
+        <v>-34.624161</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6249,15 +6241,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6267,18 +6259,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.405749</v>
+        <v>-58.432644</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.58224</v>
+        <v>-34.595434</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6290,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6325,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6333,60 +6325,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.473179</v>
+        <v>-58.401827</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.629138</v>
+        <v>-34.617667</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6401,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6414,7 +6406,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6423,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.400188</v>
+        <v>-58.450359</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.583882</v>
+        <v>-34.643582</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6442,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6499,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.426322</v>
+        <v>-58.437378</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.600097</v>
+        <v>-34.62116</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6518,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6553,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6575,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.448523</v>
+        <v>-58.413941</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.62452</v>
+        <v>-34.57698</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6594,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6629,36 +6621,36 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.449</v>
+        <v>-58.405749</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.616077</v>
+        <v>-34.58224</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6670,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6705,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6713,7 +6705,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6727,46 +6719,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.363292</v>
+        <v>-58.473179</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.642869</v>
+        <v>-34.629138</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6781,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6794,7 +6786,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6803,14 +6795,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.372941</v>
+        <v>-58.400188</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.648341</v>
+        <v>-34.583882</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6822,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6857,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6879,14 +6871,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.432805</v>
+        <v>-58.426322</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.574345</v>
+        <v>-34.600097</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6898,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6933,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6955,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.384097</v>
+        <v>-58.448523</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.598913</v>
+        <v>-34.62452</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6974,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7009,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7022,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7031,46 +7023,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.513643</v>
+        <v>-58.449</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.594169</v>
+        <v>-34.616077</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7085,7 +7077,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7093,7 +7085,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7103,50 +7095,50 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.505593</v>
+        <v>-58.363292</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.582601</v>
+        <v>-34.642869</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-548</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sucre 1533</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30326446 </t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7161,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7169,7 +7161,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7183,93 +7175,473 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.44649</v>
+        <v>-58.372941</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.558808</v>
+        <v>-34.648341</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>-517</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7/16/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Av Dorrego 2721</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>808373635</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.432805</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.574345</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-529</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7/23/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Libertad 820</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ICD30189941</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.384097</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.598913</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>-531</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7/25/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Joaquin V Gonzalez 4632</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>808530239</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.513643</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.594169</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6558</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NAZCA 5168</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>808703877</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Aplomar y corregir caja de empalme colgando</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>-58.505593</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-34.582601</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>-548</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sucre 1533</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30326446 </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>-58.44649</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-34.558808</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>5894</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>5/27/2025</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>ALBARELLOS AV. 3100</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>Reparacion de rienda</t>
         </is>
       </c>
-      <c r="I90" t="n">
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Tensor</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="M95" t="n">
         <v>-58.512533</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N95" t="n">
         <v>-34.579243</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7571,82 +7571,6 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>5894</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>5/27/2025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ALBARELLOS AV. 3100</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Reparacion de rienda</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Tensor</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>-58.512533</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-34.579243</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,16 +548,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,19 +566,15 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.406882</v>
+        <v>-58.395656</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.588287</v>
+        <v>-34.590364</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -594,27 +590,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -624,12 +620,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -642,7 +638,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -651,36 +647,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.40589</v>
+        <v>-58.496935</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.584156</v>
+        <v>-34.599084</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,7 +686,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,12 +696,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -718,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -727,46 +723,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.498448</v>
+        <v>-58.441405</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.595287</v>
+        <v>-34.594348</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -776,41 +772,37 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sacar la rienda de la plantera</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.41606</v>
+        <v>-58.483821</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.599935</v>
+        <v>-34.677698</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -822,27 +814,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -852,16 +844,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,7 +862,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -879,14 +871,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.413803</v>
+        <v>-58.406585</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.590308</v>
+        <v>-34.592933</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -898,27 +890,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,20 +925,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -955,14 +947,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.412544</v>
+        <v>-58.406882</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.590435</v>
+        <v>-34.588287</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -974,27 +966,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1001,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1017,28 +1009,28 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.432085</v>
+        <v>-58.40589</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.60178</v>
+        <v>-34.584156</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1050,27 +1042,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,7 +1077,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1093,60 +1085,60 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.378613</v>
+        <v>-58.498448</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.6349</v>
+        <v>-34.595287</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1148,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1161,28 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.41606</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.599935</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1194,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1241,24 +1237,28 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.413803</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.590308</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,17 +1270,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,24 +1313,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.412544</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.590435</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1389,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.432085</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.60178</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.378613</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.6349</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,17 +1498,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1541,24 +1541,20 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.446458</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.608741</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1574,27 +1570,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1617,60 +1613,60 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.426169</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.579697</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,11 +1681,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1707,14 +1703,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.425997</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.620454</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1726,27 +1722,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,11 +1757,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1774,7 +1770,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1783,46 +1779,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.428283</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.601207</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,11 +1833,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1850,7 +1846,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,14 +1855,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.443626</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.621032</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1878,27 +1874,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1909,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1926,7 +1922,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,46 +1931,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.450789</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.577949</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,16 +1980,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2011,46 +2007,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.421741</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.584789</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,11 +2061,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,46 +2083,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.450579</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.607673</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,11 +2137,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2163,14 +2159,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.447022</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.575873</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,27 +2178,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2239,14 +2235,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.440625</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.625499</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2258,27 +2254,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2289,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2306,55 +2302,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506348</v>
+        <v>-58.400156</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.607461</v>
+        <v>-34.631369</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2365,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2382,7 +2378,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2391,46 +2387,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.496255</v>
+        <v>-58.402062</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.650599</v>
+        <v>-34.635143</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2441,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,14 +2463,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.371855</v>
+        <v>-58.443039</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.646958</v>
+        <v>-34.612262</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,27 +2482,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,11 +2517,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2539,50 +2535,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.403583</v>
+        <v>-58.506348</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.591604</v>
+        <v>-34.607461</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,12 +2588,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2610,7 +2606,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2619,46 +2615,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.441405</v>
+        <v>-58.496255</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594348</v>
+        <v>-34.650599</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2673,11 +2669,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2695,14 +2691,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2710,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,12 +2740,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.403583</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.591604</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2839,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485232</v>
+        <v>-58.439791</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.611573</v>
+        <v>-34.61969</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,60 +2905,60 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3176,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3299,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3375,46 +3375,46 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3451,46 +3451,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3527,46 +3527,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3755,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3983,26 +3983,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,26 +4059,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4135,14 +4135,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,14 +4211,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4287,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406585</v>
+        <v>-58.423148</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592933</v>
+        <v>-34.576964</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -7568,6 +7568,82 @@
       <c r="P94" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6917</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BRIN, MINISTRO 1375</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>808918700</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>-58.355342</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-34.63565</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,16 +548,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,15 +566,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.395656</v>
+        <v>-58.406882</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.590364</v>
+        <v>-34.588287</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -590,27 +594,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,12 +624,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -638,7 +642,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,36 +651,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.496935</v>
+        <v>-58.40589</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.599084</v>
+        <v>-34.584156</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -686,7 +690,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -714,7 +718,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -723,46 +727,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.441405</v>
+        <v>-58.498448</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.594348</v>
+        <v>-34.595287</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,37 +776,41 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sacar la rienda de la plantera</t>
+        </is>
+      </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.483821</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.677698</v>
+        <v>-34.599935</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -814,27 +822,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -844,16 +852,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -862,7 +870,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -871,14 +879,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.406585</v>
+        <v>-58.413803</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.592933</v>
+        <v>-34.590308</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -890,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -925,20 +933,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -947,14 +955,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.406882</v>
+        <v>-58.412544</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.588287</v>
+        <v>-34.590435</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -966,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1001,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1009,28 +1017,28 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.40589</v>
+        <v>-58.432085</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.584156</v>
+        <v>-34.60178</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1042,27 +1050,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1077,7 +1085,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1085,60 +1093,60 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.498448</v>
+        <v>-58.378613</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.595287</v>
+        <v>-34.6349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1148,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1161,28 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.41606</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.599935</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1194,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1237,28 +1241,24 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.413803</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.590308</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,17 +1270,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,24 +1313,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.412544</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.590435</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1389,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.432085</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.60178</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.378613</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.6349</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,17 +1498,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1541,20 +1541,24 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>-58.446458</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.608741</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1570,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1613,60 +1617,60 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.426169</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.579697</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,14 +1707,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.425997</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.620454</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1722,27 +1726,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1757,11 +1761,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1779,46 +1783,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.428283</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.601207</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1833,11 +1837,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1846,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1855,14 +1859,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.443626</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.621032</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1874,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1909,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1922,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1931,46 +1935,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.450789</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.577949</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1980,16 +1984,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2007,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.421741</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.584789</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2061,11 +2065,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2083,46 +2087,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.450579</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.607673</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2137,11 +2141,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2159,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.447022</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.575873</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2178,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2213,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2235,14 +2239,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.440625</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.625499</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2254,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2289,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2302,55 +2306,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.400156</v>
+        <v>-58.506348</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.631369</v>
+        <v>-34.607461</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2365,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2387,46 +2391,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.402062</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.635143</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2441,11 +2445,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2463,14 +2467,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.443039</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.612262</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2482,27 +2486,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2517,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2535,50 +2539,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.506348</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.607461</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2588,12 +2592,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2606,7 +2610,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2615,46 +2619,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.496255</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.650599</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2669,11 +2673,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2691,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.371855</v>
+        <v>-58.439791</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.646958</v>
+        <v>-34.61969</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2710,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2740,16 +2744,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Base picada</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.403583</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.591604</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2839,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439791</v>
+        <v>-58.485232</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61969</v>
+        <v>-34.611573</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,60 +2905,60 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485232</v>
+        <v>-58.445131</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.611573</v>
+        <v>-34.572117</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3176,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3299,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.375515</v>
+        <v>-58.451203</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.634393</v>
+        <v>-34.576561</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3375,46 +3375,46 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.451203</v>
+        <v>-58.415839</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.576561</v>
+        <v>-34.599291</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3451,46 +3451,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3527,46 +3527,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3755,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3983,26 +3983,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,26 +4059,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4135,14 +4135,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,14 +4211,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4287,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,16 +548,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,19 +566,15 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.406882</v>
+        <v>-58.395656</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.588287</v>
+        <v>-34.590364</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -594,27 +590,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -624,12 +620,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -642,7 +638,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -651,36 +647,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.40589</v>
+        <v>-58.496935</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.584156</v>
+        <v>-34.599084</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,7 +686,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,12 +696,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -718,7 +714,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -727,46 +723,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.498448</v>
+        <v>-58.441405</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.595287</v>
+        <v>-34.594348</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -776,41 +772,37 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sacar la rienda de la plantera</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.41606</v>
+        <v>-58.483821</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.599935</v>
+        <v>-34.677698</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -822,27 +814,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -852,16 +844,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,7 +862,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -879,14 +871,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.413803</v>
+        <v>-58.406585</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.590308</v>
+        <v>-34.592933</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -898,27 +890,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,20 +925,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -955,14 +947,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.412544</v>
+        <v>-58.406882</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.590435</v>
+        <v>-34.588287</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -974,27 +966,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1001,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1017,28 +1009,28 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.432085</v>
+        <v>-58.40589</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.60178</v>
+        <v>-34.584156</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1050,27 +1042,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,7 +1077,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1093,60 +1085,60 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.378613</v>
+        <v>-58.498448</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.6349</v>
+        <v>-34.595287</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1148,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1161,28 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.41606</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.599935</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1194,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1241,24 +1237,28 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.413803</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.590308</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,17 +1270,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,24 +1313,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.412544</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.590435</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1389,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.432085</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.60178</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.378613</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.6349</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,17 +1498,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1541,24 +1541,20 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.446458</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.608741</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1574,27 +1570,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,7 +1605,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1617,60 +1613,60 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.426169</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.579697</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,11 +1681,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1707,14 +1703,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.425997</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.620454</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1726,27 +1722,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,11 +1757,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1774,7 +1770,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1783,46 +1779,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.428283</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.601207</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,11 +1833,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1850,7 +1846,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,14 +1855,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.443626</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.621032</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1878,27 +1874,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1909,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1926,7 +1922,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,46 +1931,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.450789</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.577949</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,16 +1980,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2011,46 +2007,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.421741</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.584789</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,11 +2061,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2078,7 +2074,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,46 +2083,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.450579</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.607673</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,11 +2137,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2163,14 +2159,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.447022</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.575873</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,27 +2178,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2213,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2239,14 +2235,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.440625</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.625499</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2258,27 +2254,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2289,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2306,55 +2302,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506348</v>
+        <v>-58.400156</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.607461</v>
+        <v>-34.631369</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2365,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2382,7 +2378,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2391,46 +2387,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.496255</v>
+        <v>-58.402062</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.650599</v>
+        <v>-34.635143</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2441,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,14 +2463,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.371855</v>
+        <v>-58.443039</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.646958</v>
+        <v>-34.612262</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,27 +2482,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,11 +2517,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2539,50 +2535,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.403583</v>
+        <v>-58.506348</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.591604</v>
+        <v>-34.607461</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,12 +2588,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2610,7 +2606,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2619,46 +2615,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.441405</v>
+        <v>-58.496255</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594348</v>
+        <v>-34.650599</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2673,11 +2669,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2695,14 +2691,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.439791</v>
+        <v>-58.371855</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61969</v>
+        <v>-34.646958</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2710,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,12 +2740,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Base picada</t>
+        </is>
+      </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.403583</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.591604</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2839,50 +2839,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.485232</v>
+        <v>-58.439791</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.611573</v>
+        <v>-34.61969</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,60 +2905,60 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3176,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,27 +3242,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3299,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3375,46 +3375,46 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3451,46 +3451,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3527,46 +3527,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3755,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3983,26 +3983,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4059,26 +4059,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4135,14 +4135,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,14 +4211,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4260,16 +4260,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4287,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.406585</v>
+        <v>-58.423148</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592933</v>
+        <v>-34.576964</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,16 +548,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,15 +566,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M2" t="n">
-        <v>-58.395656</v>
+        <v>-58.406882</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.590364</v>
+        <v>-34.588287</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -590,27 +594,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,12 +624,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -638,7 +642,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -647,36 +651,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.496935</v>
+        <v>-58.40589</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.599084</v>
+        <v>-34.584156</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -686,7 +690,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -714,7 +718,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -723,46 +727,46 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.441405</v>
+        <v>-58.498448</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.594348</v>
+        <v>-34.595287</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,37 +776,41 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sacar la rienda de la plantera</t>
+        </is>
+      </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.483821</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.677698</v>
+        <v>-34.599935</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -814,27 +822,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -844,16 +852,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -862,7 +870,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -871,14 +879,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.406585</v>
+        <v>-58.413803</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.592933</v>
+        <v>-34.590308</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -890,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -925,20 +933,20 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -947,14 +955,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.406882</v>
+        <v>-58.412544</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.588287</v>
+        <v>-34.590435</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -966,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1001,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1009,28 +1017,28 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.40589</v>
+        <v>-58.432085</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.584156</v>
+        <v>-34.60178</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1042,27 +1050,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1077,7 +1085,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1085,60 +1093,60 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.498448</v>
+        <v>-58.378613</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.595287</v>
+        <v>-34.6349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1148,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1161,28 +1169,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.41606</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.599935</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1194,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1237,28 +1241,24 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.413803</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.590308</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,17 +1270,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,24 +1313,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.412544</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.590435</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1389,28 +1389,28 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.432085</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.60178</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.378613</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.6349</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,17 +1498,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1541,20 +1541,24 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>-58.446458</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.608741</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1570,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1605,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1613,60 +1617,60 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.426169</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.579697</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1681,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,14 +1707,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.425997</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.620454</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1722,27 +1726,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1757,11 +1761,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1779,46 +1783,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.428283</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.601207</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1833,11 +1837,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1846,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1855,14 +1859,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.443626</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.621032</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1874,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1909,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1922,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1931,46 +1935,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.450789</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.577949</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1980,16 +1984,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2007,46 +2011,46 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.421741</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.584789</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2061,11 +2065,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2083,46 +2087,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.450579</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.607673</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2137,11 +2141,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2159,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.447022</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.575873</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2178,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2213,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2235,14 +2239,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.440625</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.625499</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2254,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2289,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2302,55 +2306,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.400156</v>
+        <v>-58.506348</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.631369</v>
+        <v>-34.607461</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2365,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2387,14 +2391,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.402062</v>
+        <v>-58.438053</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.635143</v>
+        <v>-34.617481</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2406,27 +2410,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2441,7 +2445,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2463,46 +2467,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.443039</v>
+        <v>-58.496255</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.612262</v>
+        <v>-34.650599</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2517,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2535,50 +2539,50 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.506348</v>
+        <v>-58.371855</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.607461</v>
+        <v>-34.646958</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2593,11 +2597,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2615,46 +2619,46 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.496255</v>
+        <v>-58.403583</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.650599</v>
+        <v>-34.591604</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2664,16 +2668,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2691,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.371855</v>
+        <v>-58.441405</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.646958</v>
+        <v>-34.594348</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2710,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2745,11 +2749,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2767,14 +2771,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.403583</v>
+        <v>-58.439791</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.591604</v>
+        <v>-34.61969</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,7 +2790,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2796,17 +2800,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2816,14 +2820,10 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
         <v>1</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439791</v>
+        <v>-58.483821</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.61969</v>
+        <v>-34.677698</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4336,16 +4336,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4354,55 +4354,55 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.51232</v>
+        <v>-58.406585</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.595637</v>
+        <v>-34.592933</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4435,18 +4435,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4458,27 +4458,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4534,17 +4534,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4587,18 +4587,18 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4610,7 +4610,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4667,26 +4667,26 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4743,14 +4743,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4762,27 +4762,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4819,14 +4819,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4891,14 +4891,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4924,17 +4924,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4967,14 +4967,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4990,27 +4990,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.362579</v>
+        <v>-58.4212</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635096</v>
+        <v>-34.623575</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5076,17 +5076,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5119,30 +5119,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.487371</v>
+        <v>-58.362579</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.640099</v>
+        <v>-34.635096</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5152,17 +5152,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5195,30 +5195,30 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5275,14 +5275,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.420909</v>
+        <v>-58.425845</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.626221</v>
+        <v>-34.616562</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5294,17 +5294,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5351,14 +5351,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.416477</v>
+        <v>-58.420909</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.61303</v>
+        <v>-34.626221</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5370,7 +5370,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5579,10 +5579,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5598,27 +5598,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5655,10 +5655,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5674,27 +5674,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5750,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5803,50 +5803,50 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5883,26 +5883,26 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5959,26 +5959,26 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5988,17 +5988,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6021,60 +6021,60 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.400169</v>
+        <v>-58.448496</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617784</v>
+        <v>-34.58182</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6111,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.425296</v>
+        <v>-58.400169</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.578706</v>
+        <v>-34.617784</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6187,46 +6187,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.474467</v>
+        <v>-58.425296</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.624161</v>
+        <v>-34.578706</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6263,46 +6263,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.432644</v>
+        <v>-58.474467</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.595434</v>
+        <v>-34.624161</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6339,14 +6339,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.401827</v>
+        <v>-58.432644</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.617667</v>
+        <v>-34.595434</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,27 +6358,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6415,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.450359</v>
+        <v>-58.401827</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.643582</v>
+        <v>-34.617667</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,7 +6434,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6444,17 +6444,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6491,10 +6491,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.437378</v>
+        <v>-58.450359</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.62116</v>
+        <v>-34.643582</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6510,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6567,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.413941</v>
+        <v>-58.437378</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.57698</v>
+        <v>-34.62116</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,7 +6586,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,15 +6621,15 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6639,18 +6639,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.405749</v>
+        <v>-58.413941</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.58224</v>
+        <v>-34.57698</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,15 +6697,15 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6719,26 +6719,26 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473179</v>
+        <v>-58.405749</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.629138</v>
+        <v>-34.58224</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6748,17 +6748,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6781,60 +6781,60 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.400188</v>
+        <v>-58.473179</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.583882</v>
+        <v>-34.629138</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6871,14 +6871,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.426322</v>
+        <v>-58.400188</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.600097</v>
+        <v>-34.583882</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,7 +6890,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6900,17 +6900,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6947,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448523</v>
+        <v>-58.426322</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.62452</v>
+        <v>-34.600097</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,17 +6966,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.449</v>
+        <v>-58.448523</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.616077</v>
+        <v>-34.62452</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7042,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7090,23 +7090,23 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.363292</v>
+        <v>-58.449</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.642869</v>
+        <v>-34.616077</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7118,17 +7118,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7171,14 +7171,14 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.372941</v>
+        <v>-58.363292</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.648341</v>
+        <v>-34.642869</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -7194,27 +7194,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7251,14 +7251,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.432805</v>
+        <v>-58.372941</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.574345</v>
+        <v>-34.648341</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7270,27 +7270,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -7327,14 +7327,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.384097</v>
+        <v>-58.432805</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.598913</v>
+        <v>-34.574345</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7346,27 +7346,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -7403,46 +7403,46 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.513643</v>
+        <v>-58.384097</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.594169</v>
+        <v>-34.598913</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.505593</v>
+        <v>-58.513643</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.582601</v>
+        <v>-34.594169</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -7498,27 +7498,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-548</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sucre 1533</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30326446 </t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7555,14 +7555,14 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.44649</v>
+        <v>-58.505593</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.558808</v>
+        <v>-34.582601</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7574,74 +7574,150 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>-548</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>8/6/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sucre 1533</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30326446 </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>-58.44649</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-34.558808</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>6917</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>8/12/2025</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>808918700</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="M96" t="n">
         <v>-58.355342</v>
       </c>
-      <c r="N95" t="n">
+      <c r="N96" t="n">
         <v>-34.63565</v>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>San Telmo</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7574,27 +7574,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-548</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sucre 1533</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30326446 </t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7631,93 +7631,17 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.44649</v>
+        <v>-58.355342</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.558808</v>
+        <v>-34.63565</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -7194,7 +7194,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,11 +553,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -575,14 +575,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.406882</v>
+        <v>-58.420909</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.588287</v>
+        <v>-34.626221</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -594,27 +594,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -651,46 +651,46 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.40589</v>
+        <v>-58.440177</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.584156</v>
+        <v>-34.56291</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -713,60 +713,56 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.498448</v>
+        <v>-58.446458</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.595287</v>
+        <v>-34.608741</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -776,12 +772,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -789,28 +785,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.41606</v>
+        <v>-58.395656</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.599935</v>
+        <v>-34.590364</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -822,27 +814,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -857,7 +849,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -870,7 +862,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -879,14 +871,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.413803</v>
+        <v>-58.372941</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.590308</v>
+        <v>-34.648341</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -898,27 +890,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,7 +925,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -941,12 +933,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -955,14 +947,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.412544</v>
+        <v>-58.355342</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.590435</v>
+        <v>-34.63565</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -974,27 +966,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1001,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1027,50 +1019,50 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.432085</v>
+        <v>-58.505593</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.60178</v>
+        <v>-34.582601</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,7 +1077,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1093,7 +1085,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1103,18 +1095,18 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.378613</v>
+        <v>-58.448523</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.6349</v>
+        <v>-34.62452</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1126,27 +1118,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1148,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1174,19 +1166,23 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.426322</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.600097</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1194,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1249,38 +1245,42 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.473179</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.629138</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.413941</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.57698</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,27 +1346,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1403,14 +1403,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.437378</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.62116</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1479,14 +1479,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.450359</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.643582</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,14 +1555,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.401827</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.617667</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1574,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,14 +1631,14 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.474467</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.624161</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1650,17 +1650,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.425296</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.578706</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1726,27 +1726,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1783,14 +1783,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.450789</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.577949</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1802,17 +1802,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,32 +1837,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.44848</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.581338</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1878,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1931,50 +1931,50 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.448496</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.58182</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1997,28 +1997,28 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.497698</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.612038</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2030,27 +2030,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.422775</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.604135</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2106,27 +2106,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2163,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.469148</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.687883</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.400169</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.617784</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2258,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2311,14 +2311,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506348</v>
+        <v>-58.496255</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.607461</v>
+        <v>-34.650599</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2334,27 +2334,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2391,14 +2391,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.438053</v>
+        <v>-58.425478</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.617481</v>
+        <v>-34.601865</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2410,27 +2410,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2467,46 +2467,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.496255</v>
+        <v>-58.425764</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.650599</v>
+        <v>-34.604359</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2543,14 +2543,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.371855</v>
+        <v>-58.426665</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.646958</v>
+        <v>-34.598019</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2562,27 +2562,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2597,11 +2597,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2619,14 +2619,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.403583</v>
+        <v>-58.427424</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.591604</v>
+        <v>-34.601217</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2638,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2695,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.441405</v>
+        <v>-58.416477</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.594348</v>
+        <v>-34.61303</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2771,14 +2771,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.439791</v>
+        <v>-58.425845</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.61969</v>
+        <v>-34.616562</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2790,27 +2790,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2820,10 +2820,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
@@ -2834,7 +2838,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2843,14 +2847,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.483821</v>
+        <v>-58.362579</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.677698</v>
+        <v>-34.635096</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2862,27 +2866,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2901,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,7 +2909,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2915,50 +2919,50 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.485232</v>
+        <v>-58.4212</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.611573</v>
+        <v>-34.623575</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2977,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2986,23 +2990,23 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.445131</v>
+        <v>-58.477944</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.572117</v>
+        <v>-34.675149</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3018,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3053,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3071,14 +3075,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.425764</v>
+        <v>-58.468182</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.604359</v>
+        <v>-34.685231</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3090,27 +3094,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3129,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3133,7 +3137,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3147,14 +3151,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.439751</v>
+        <v>-58.467789</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.609908</v>
+        <v>-34.68463</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,27 +3170,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3205,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,7 +3213,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3223,36 +3227,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.43607</v>
+        <v>-58.492605</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.61926</v>
+        <v>-34.581454</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3262,7 +3266,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3299,36 +3303,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.375515</v>
+        <v>-58.483104</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.634393</v>
+        <v>-34.572353</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3338,7 +3342,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3357,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3361,7 +3365,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3371,14 +3375,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.451203</v>
+        <v>-58.483927</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.576561</v>
+        <v>-34.570689</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3394,27 +3398,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3433,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3451,10 +3455,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.415839</v>
+        <v>-58.443196</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.599291</v>
+        <v>-34.618534</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3470,27 +3474,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,11 +3509,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3518,7 +3522,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3527,46 +3531,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.440177</v>
+        <v>-58.447022</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.56291</v>
+        <v>-34.575873</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3585,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3598,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3607,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3626,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3636,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3661,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3665,12 +3669,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3683,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3702,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3712,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3755,14 +3759,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,27 +3778,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3813,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3817,12 +3821,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3835,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.421623</v>
+        <v>-58.400156</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.614541</v>
+        <v>-34.631369</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,27 +3854,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3889,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3902,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3911,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.416562</v>
+        <v>-58.415839</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.590589</v>
+        <v>-34.599291</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,27 +3930,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3965,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3983,14 +3987,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.429972</v>
+        <v>-58.375515</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.632042</v>
+        <v>-34.634393</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,27 +4006,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4041,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4045,7 +4049,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4059,36 +4063,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.47888</v>
+        <v>-58.43607</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.571108</v>
+        <v>-34.61926</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4098,7 +4102,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4117,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4121,7 +4125,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4135,10 +4139,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.443196</v>
+        <v>-58.439751</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.618534</v>
+        <v>-34.609908</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4154,27 +4158,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,11 +4193,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4202,7 +4206,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4211,14 +4215,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.422268</v>
+        <v>-58.371855</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.627754</v>
+        <v>-34.646958</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,27 +4234,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4265,7 +4269,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4278,7 +4282,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4287,46 +4291,46 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.423148</v>
+        <v>-58.513643</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.576964</v>
+        <v>-34.594169</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4336,16 +4340,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4354,7 +4358,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4363,10 +4367,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.406585</v>
+        <v>-58.384097</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.592933</v>
+        <v>-34.598913</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4382,27 +4386,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4421,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4435,40 +4439,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.51232</v>
+        <v>-58.432805</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.595637</v>
+        <v>-34.574345</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4478,7 +4482,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4497,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4511,50 +4515,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.483104</v>
+        <v>-58.363292</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.572353</v>
+        <v>-34.642869</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,68 +4573,68 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.483927</v>
+        <v>-58.421741</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.570689</v>
+        <v>-34.584789</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4658,7 +4662,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4667,46 +4671,46 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.501766</v>
+        <v>-58.449</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.574369</v>
+        <v>-34.616077</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4725,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4734,7 +4738,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4743,14 +4747,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.467789</v>
+        <v>-58.400188</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.68463</v>
+        <v>-34.583882</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4762,17 +4766,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4782,7 +4786,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,36 +4801,36 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.423551</v>
+        <v>-58.405749</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.581258</v>
+        <v>-34.58224</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,27 +4842,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4877,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4886,7 +4890,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4895,10 +4899,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.468182</v>
+        <v>-58.431522</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.685231</v>
+        <v>-34.617523</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4914,27 +4918,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4953,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4957,7 +4961,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4967,18 +4971,18 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.477944</v>
+        <v>-58.432644</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.675149</v>
+        <v>-34.595434</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4990,27 +4994,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5029,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5038,7 +5042,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5047,14 +5051,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.4212</v>
+        <v>-58.402062</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.623575</v>
+        <v>-34.635143</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,27 +5070,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5105,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5123,14 +5127,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.362579</v>
+        <v>-58.443039</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.635096</v>
+        <v>-34.612262</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5142,27 +5146,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5181,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5185,60 +5189,60 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.487371</v>
+        <v>-58.438053</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.640099</v>
+        <v>-34.617481</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5248,12 +5252,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5266,7 +5270,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5275,36 +5279,36 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.425845</v>
+        <v>-58.496935</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.616562</v>
+        <v>-34.599084</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5318,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5333,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5351,10 +5355,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.420909</v>
+        <v>-58.440625</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.626221</v>
+        <v>-34.625499</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5370,27 +5374,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5409,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5418,7 +5422,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5427,14 +5431,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.416477</v>
+        <v>-58.423551</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.61303</v>
+        <v>-34.581258</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5446,27 +5450,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5485,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5499,50 +5503,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.427424</v>
+        <v>-58.51232</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.601217</v>
+        <v>-34.595637</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5561,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5570,7 +5574,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5579,14 +5583,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.426665</v>
+        <v>-58.443626</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.598019</v>
+        <v>-34.621032</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5598,27 +5602,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5628,16 +5632,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5646,7 +5650,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5655,14 +5659,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.425478</v>
+        <v>-58.406585</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.601865</v>
+        <v>-34.592933</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5674,27 +5678,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5713,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,12 +5721,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5731,14 +5735,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.440448</v>
+        <v>-58.423148</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.611223</v>
+        <v>-34.576964</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5750,27 +5754,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,15 +5789,15 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5807,14 +5811,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.422775</v>
+        <v>-58.403583</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.604135</v>
+        <v>-34.591604</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5826,27 +5830,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5865,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,60 +5873,60 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.497698</v>
+        <v>-58.422268</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.612038</v>
+        <v>-34.627754</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5941,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,7 +5949,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5955,50 +5959,50 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.44848</v>
+        <v>-58.47888</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.581338</v>
+        <v>-34.571108</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6017,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6021,7 +6025,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6031,50 +6035,50 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.448496</v>
+        <v>-58.429972</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.58182</v>
+        <v>-34.632042</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6093,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6102,7 +6106,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6111,10 +6115,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.400169</v>
+        <v>-58.428283</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.617784</v>
+        <v>-34.601207</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6130,27 +6134,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6160,14 +6164,10 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Inclinada posible cambio</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>1</v>
       </c>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6187,14 +6187,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.425296</v>
+        <v>-58.483821</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.578706</v>
+        <v>-34.677698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6206,27 +6206,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6263,46 +6263,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.474467</v>
+        <v>-58.416562</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.624161</v>
+        <v>-34.590589</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6339,14 +6339,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.432644</v>
+        <v>-58.425997</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.595434</v>
+        <v>-34.620454</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,27 +6358,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6401,28 +6401,28 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.401827</v>
+        <v>-58.426169</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.617667</v>
+        <v>-34.579697</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6487,18 +6487,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.450359</v>
+        <v>-58.378613</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.643582</v>
+        <v>-34.6349</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6563,18 +6563,18 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.437378</v>
+        <v>-58.432085</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.62116</v>
+        <v>-34.60178</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6639,40 +6639,40 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.413941</v>
+        <v>-58.487371</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.57698</v>
+        <v>-34.640099</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,36 +6697,36 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.405749</v>
+        <v>-58.412544</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.58224</v>
+        <v>-34.590435</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6738,27 +6738,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6781,60 +6781,60 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.473179</v>
+        <v>-58.445131</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.629138</v>
+        <v>-34.572117</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6857,28 +6857,28 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.400188</v>
+        <v>-58.41606</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.583882</v>
+        <v>-34.599935</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6947,46 +6947,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.426322</v>
+        <v>-58.498448</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.600097</v>
+        <v>-34.595287</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,14 +7023,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.448523</v>
+        <v>-58.40589</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.62452</v>
+        <v>-34.584156</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7042,17 +7042,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,11 +7077,11 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -7099,46 +7099,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.449</v>
+        <v>-58.450579</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.616077</v>
+        <v>-34.607673</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7166,23 +7166,23 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.363292</v>
+        <v>-58.441405</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.642869</v>
+        <v>-34.594348</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7194,27 +7194,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7251,14 +7251,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.372941</v>
+        <v>-58.413803</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.648341</v>
+        <v>-34.590308</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7270,27 +7270,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7305,11 +7305,11 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7327,321 +7327,17 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.432805</v>
+        <v>-58.406882</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.574345</v>
+        <v>-34.588287</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>-529</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/23/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Libertad 820</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>ICD30189941</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-58.384097</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-34.598913</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>-531</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Joaquin V Gonzalez 4632</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>808530239</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>-58.513643</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-34.594169</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>6558</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>8/4/2025</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>NAZCA 5168</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>808703877</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>-58.505593</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-34.582601</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -518,27 +518,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>4/4/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>SANCHEZ DE BUSTAMANTE 2064</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>784804268</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,11 +553,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -575,14 +575,14 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.420909</v>
+        <v>-58.406882</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.626221</v>
+        <v>-34.588287</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -594,27 +594,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>7/15/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>795698153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -651,46 +651,46 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.440177</v>
+        <v>-58.40589</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.56291</v>
+        <v>-34.584156</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>8/6/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>MCAL SOLANO LOPEZ 3110</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>792101640</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Retirar columna. TLC ya traspaso nodo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -713,56 +713,60 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M4" t="n">
-        <v>-58.446458</v>
+        <v>-58.498448</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.608741</v>
+        <v>-34.595287</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>8/27/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>BRAVO, MARIO 853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>795498456</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -772,12 +776,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Sacar la rienda de la plantera</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -785,24 +789,28 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M5" t="n">
-        <v>-58.395656</v>
+        <v>-58.41606</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.590364</v>
+        <v>-34.599935</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -814,27 +822,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>9/5/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Bulnes 1810</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>796016024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -849,7 +857,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -862,7 +870,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -871,14 +879,14 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.372941</v>
+        <v>-58.413803</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.648341</v>
+        <v>-34.590308</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -890,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>808918700</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -925,7 +933,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -933,12 +941,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -947,14 +955,14 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.355342</v>
+        <v>-58.412544</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.63565</v>
+        <v>-34.590435</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -966,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1001,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1019,50 +1027,50 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.505593</v>
+        <v>-58.432085</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.582601</v>
+        <v>-34.60178</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1077,7 +1085,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1085,7 +1093,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1095,18 +1103,18 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.448523</v>
+        <v>-58.378613</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.62452</v>
+        <v>-34.6349</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1118,27 +1126,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1148,12 +1156,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1166,23 +1174,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.426322</v>
+        <v>-58.395656</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.600097</v>
+        <v>-34.590364</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1194,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1237,7 +1241,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1245,42 +1249,38 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.473179</v>
+        <v>-58.446458</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.629138</v>
+        <v>-34.608741</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.413941</v>
+        <v>-58.426169</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.57698</v>
+        <v>-34.579697</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,27 +1346,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1403,14 +1403,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.437378</v>
+        <v>-58.425997</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.62116</v>
+        <v>-34.620454</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1479,14 +1479,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.450359</v>
+        <v>-58.428283</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.643582</v>
+        <v>-34.601207</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,14 +1555,14 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.401827</v>
+        <v>-58.443626</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.617667</v>
+        <v>-34.621032</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1574,27 +1574,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,14 +1631,14 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.474467</v>
+        <v>-58.450789</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.624161</v>
+        <v>-34.577949</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1650,17 +1650,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.425296</v>
+        <v>-58.421741</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.578706</v>
+        <v>-34.584789</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1726,27 +1726,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1783,14 +1783,14 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450789</v>
+        <v>-58.450579</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.577949</v>
+        <v>-34.607673</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1802,17 +1802,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,32 +1837,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.44848</v>
+        <v>-58.447022</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.581338</v>
+        <v>-34.575873</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1878,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1931,50 +1931,50 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.448496</v>
+        <v>-58.440625</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.58182</v>
+        <v>-34.625499</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1997,28 +1997,28 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.497698</v>
+        <v>-58.496935</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.612038</v>
+        <v>-34.599084</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2030,27 +2030,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.422775</v>
+        <v>-58.400156</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.604135</v>
+        <v>-34.631369</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2106,27 +2106,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2163,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.469148</v>
+        <v>-58.402062</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.687883</v>
+        <v>-34.635143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.400169</v>
+        <v>-58.443039</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.617784</v>
+        <v>-34.612262</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2258,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2315,46 +2315,46 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.496255</v>
+        <v>-58.438053</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.650599</v>
+        <v>-34.617481</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2391,14 +2391,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.425478</v>
+        <v>-58.431522</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.601865</v>
+        <v>-34.617523</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2410,27 +2410,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2467,46 +2467,46 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.425764</v>
+        <v>-58.496255</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.604359</v>
+        <v>-34.650599</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,11 +2521,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2543,14 +2543,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.426665</v>
+        <v>-58.371855</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.598019</v>
+        <v>-34.646958</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2562,27 +2562,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2597,11 +2597,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2619,14 +2619,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.427424</v>
+        <v>-58.403583</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.601217</v>
+        <v>-34.591604</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2638,27 +2638,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2695,14 +2695,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.416477</v>
+        <v>-58.441405</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.61303</v>
+        <v>-34.594348</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2714,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,14 +2744,10 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -2762,7 +2758,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2771,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.425845</v>
+        <v>-58.483821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.616562</v>
+        <v>-34.677698</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2790,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2825,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2838,7 +2834,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2847,14 +2843,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.362579</v>
+        <v>-58.445131</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.635096</v>
+        <v>-34.572117</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2866,27 +2862,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2901,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2923,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.4212</v>
+        <v>-58.425764</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.623575</v>
+        <v>-34.604359</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2942,27 +2938,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2977,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2985,7 +2981,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2995,18 +2991,18 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.477944</v>
+        <v>-58.439751</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.675149</v>
+        <v>-34.609908</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3018,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3053,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3061,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3075,10 +3071,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.468182</v>
+        <v>-58.43607</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.685231</v>
+        <v>-34.61926</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3094,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3129,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3151,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.467789</v>
+        <v>-58.375515</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.68463</v>
+        <v>-34.634393</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3170,27 +3166,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3205,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3227,46 +3223,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.492605</v>
+        <v>-58.415839</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.581454</v>
+        <v>-34.599291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3281,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3303,10 +3299,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.483104</v>
+        <v>-58.440177</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.572353</v>
+        <v>-34.56291</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3322,27 +3318,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3357,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3365,7 +3361,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3375,50 +3371,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.483927</v>
+        <v>-58.469148</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.570689</v>
+        <v>-34.687883</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3433,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3446,7 +3442,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3455,10 +3451,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.443196</v>
+        <v>-58.395063</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.618534</v>
+        <v>-34.606257</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3474,27 +3470,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3509,20 +3505,20 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3531,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.447022</v>
+        <v>-58.429977</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.575873</v>
+        <v>-34.615514</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3550,7 +3546,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3560,17 +3556,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3585,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3593,12 +3589,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3607,10 +3603,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.395063</v>
+        <v>-58.421623</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.606257</v>
+        <v>-34.614541</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3626,27 +3622,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3661,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3669,12 +3665,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3683,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429977</v>
+        <v>-58.416562</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.615514</v>
+        <v>-34.590589</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3702,27 +3698,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3737,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3745,7 +3741,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3759,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421623</v>
+        <v>-58.429972</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.614541</v>
+        <v>-34.632042</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3778,27 +3774,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3813,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3826,7 +3822,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3835,46 +3831,46 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.400156</v>
+        <v>-58.47888</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.631369</v>
+        <v>-34.571108</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3889,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3911,10 +3907,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.415839</v>
+        <v>-58.443196</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.599291</v>
+        <v>-34.618534</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3930,27 +3926,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3965,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3978,7 +3974,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3987,14 +3983,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.375515</v>
+        <v>-58.422268</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.634393</v>
+        <v>-34.627754</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4006,27 +4002,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4041,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4049,12 +4045,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4063,14 +4059,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.43607</v>
+        <v>-58.423148</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.61926</v>
+        <v>-34.576964</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4082,27 +4078,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4112,25 +4108,25 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4139,14 +4135,14 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.439751</v>
+        <v>-58.406585</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.609908</v>
+        <v>-34.592933</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4158,27 +4154,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4193,11 +4189,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4211,50 +4207,50 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.371855</v>
+        <v>-58.51232</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.646958</v>
+        <v>-34.595637</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4269,7 +4265,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4291,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.513643</v>
+        <v>-58.483104</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.594169</v>
+        <v>-34.572353</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4310,27 +4306,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4345,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4353,7 +4349,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4363,50 +4359,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.384097</v>
+        <v>-58.483927</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.598913</v>
+        <v>-34.570689</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4421,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4443,46 +4439,46 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.432805</v>
+        <v>-58.492605</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.574345</v>
+        <v>-34.581454</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4497,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4515,18 +4511,18 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.363292</v>
+        <v>-58.467789</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.642869</v>
+        <v>-34.68463</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4538,17 +4534,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4558,7 +4554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4573,11 +4569,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4595,10 +4591,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.421741</v>
+        <v>-58.423551</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.584789</v>
+        <v>-34.581258</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4614,27 +4610,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4649,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4662,7 +4658,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4671,10 +4667,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.449</v>
+        <v>-58.468182</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.616077</v>
+        <v>-34.685231</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4690,27 +4686,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4725,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4738,23 +4734,23 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.400188</v>
+        <v>-58.477944</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.583882</v>
+        <v>-34.675149</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4766,27 +4762,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4801,15 +4797,15 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4819,18 +4815,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.405749</v>
+        <v>-58.4212</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.58224</v>
+        <v>-34.623575</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4842,27 +4838,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4877,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4890,7 +4886,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4899,14 +4895,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.431522</v>
+        <v>-58.362579</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.617523</v>
+        <v>-34.635096</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4918,27 +4914,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4953,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4961,7 +4957,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4971,50 +4967,50 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.432644</v>
+        <v>-58.487371</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.595434</v>
+        <v>-34.640099</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5029,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5042,7 +5038,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5051,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.402062</v>
+        <v>-58.425845</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.635143</v>
+        <v>-34.616562</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5070,27 +5066,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5105,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5127,14 +5123,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.443039</v>
+        <v>-58.420909</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.612262</v>
+        <v>-34.626221</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5146,27 +5142,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5181,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5194,7 +5190,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5203,14 +5199,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.438053</v>
+        <v>-58.416477</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.617481</v>
+        <v>-34.61303</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5222,27 +5218,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5252,12 +5248,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5270,7 +5266,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5279,36 +5275,36 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.496935</v>
+        <v>-58.427424</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.599084</v>
+        <v>-34.601217</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5318,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5355,14 +5351,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.440625</v>
+        <v>-58.426665</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.625499</v>
+        <v>-34.598019</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5374,27 +5370,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5409,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5422,7 +5418,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5431,14 +5427,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.423551</v>
+        <v>-58.425478</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.581258</v>
+        <v>-34.601865</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5450,27 +5446,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5485,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5493,7 +5489,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5503,50 +5499,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.51232</v>
+        <v>-58.422775</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.595637</v>
+        <v>-34.604135</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5561,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5569,60 +5565,60 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.443626</v>
+        <v>-58.497698</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.621032</v>
+        <v>-34.612038</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5632,41 +5628,41 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.406585</v>
+        <v>-58.44848</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.592933</v>
+        <v>-34.581338</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5678,27 +5674,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5713,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5721,60 +5717,60 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.423148</v>
+        <v>-58.448496</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.576964</v>
+        <v>-34.58182</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5789,11 +5785,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5802,7 +5798,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5811,14 +5807,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.403583</v>
+        <v>-58.400169</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.591604</v>
+        <v>-34.617784</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5830,27 +5826,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5865,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5878,7 +5874,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5887,14 +5883,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.422268</v>
+        <v>-58.425296</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.627754</v>
+        <v>-34.578706</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5906,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5941,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5963,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.47888</v>
+        <v>-58.474467</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.571108</v>
+        <v>-34.624161</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5982,27 +5978,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6017,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6025,7 +6021,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6039,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.429972</v>
+        <v>-58.432644</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.632042</v>
+        <v>-34.595434</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6058,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6093,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6106,7 +6102,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6115,10 +6111,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.428283</v>
+        <v>-58.401827</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.601207</v>
+        <v>-34.617667</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6134,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6164,10 +6160,14 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+        </is>
+      </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6187,10 +6187,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.483821</v>
+        <v>-58.450359</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.677698</v>
+        <v>-34.643582</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6206,27 +6206,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6263,14 +6263,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.416562</v>
+        <v>-58.437378</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.590589</v>
+        <v>-34.62116</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6282,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6339,14 +6339,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.425997</v>
+        <v>-58.413941</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.620454</v>
+        <v>-34.57698</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,17 +6358,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,11 +6393,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6415,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.426169</v>
+        <v>-58.405749</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.579697</v>
+        <v>-34.58224</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,27 +6434,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6491,46 +6491,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.378613</v>
+        <v>-58.473179</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.6349</v>
+        <v>-34.629138</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6553,28 +6553,28 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.432085</v>
+        <v>-58.400188</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.60178</v>
+        <v>-34.583882</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6639,50 +6639,50 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.487371</v>
+        <v>-58.426322</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.640099</v>
+        <v>-34.600097</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6705,12 +6705,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6719,14 +6719,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.412544</v>
+        <v>-58.448523</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.590435</v>
+        <v>-34.62452</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6738,27 +6738,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6795,14 +6795,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.445131</v>
+        <v>-58.449</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.572117</v>
+        <v>-34.616077</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/27/2024</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BRAVO, MARIO 853</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>795498456</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sacar la rienda de la plantera</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6867,18 +6867,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.41606</v>
+        <v>-58.363292</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.599935</v>
+        <v>-34.642869</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6947,46 +6947,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.498448</v>
+        <v>-58.372941</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.595287</v>
+        <v>-34.648341</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/15/2024</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PACHECO DE MELO, JOSE ANDRES 3066</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>795698153</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7023,14 +7023,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.40589</v>
+        <v>-58.432805</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.584156</v>
+        <v>-34.574345</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7042,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,11 +7077,11 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7099,46 +7099,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.450579</v>
+        <v>-58.384097</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.607673</v>
+        <v>-34.598913</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7175,46 +7175,46 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.441405</v>
+        <v>-58.513643</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.594348</v>
+        <v>-34.594169</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9/5/2024</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bulnes 1810</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>796016024</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado, solo Retirar Columna</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -7237,12 +7237,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7251,46 +7251,46 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.413803</v>
+        <v>-58.505593</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.590308</v>
+        <v>-34.582601</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4/4/2024</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SANCHEZ DE BUSTAMANTE 2064</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>784804268</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7305,11 +7305,11 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Equipo de TLC ya traspasado solo Retirar Columna</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7327,14 +7327,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.406882</v>
+        <v>-58.355342</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.588287</v>
+        <v>-34.63565</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -5446,27 +5446,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5499,50 +5499,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.422775</v>
+        <v>-58.497698</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.604135</v>
+        <v>-34.612038</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5579,26 +5579,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5655,26 +5655,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5684,17 +5684,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,60 +5717,60 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5807,14 +5807,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5826,27 +5826,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5883,46 +5883,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5959,46 +5959,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6035,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6111,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6140,17 +6140,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6187,10 +6187,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6206,27 +6206,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6263,14 +6263,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6282,7 +6282,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,15 +6317,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6335,18 +6335,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,27 +6358,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,15 +6393,15 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6415,26 +6415,26 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6444,17 +6444,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6477,60 +6477,60 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6567,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,7 +6586,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6596,17 +6596,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6643,14 +6643,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,17 +6662,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6719,10 +6719,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6738,27 +6738,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6786,23 +6786,23 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,17 +6814,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6867,14 +6867,14 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6890,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6947,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7023,14 +7023,14 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7042,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7099,46 +7099,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7175,10 +7175,10 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -7194,17 +7194,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>5894</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>ALBARELLOS AV. 3100</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>ICD30340076</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7224,20 +7224,20 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Transito</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>QAP fotos del gcba tenia las incorrectas</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7247,14 +7247,14 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.505593</v>
+        <v>-58.512533</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.582601</v>
+        <v>-34.579243</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7194,27 +7194,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5894</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3100</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ICD30340076</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7224,20 +7224,20 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pendiente de Transito</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>QAP fotos del gcba tenia las incorrectas</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7247,97 +7247,21 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.512533</v>
+        <v>-58.355342</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.579243</v>
+        <v>-34.63565</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -918,7 +918,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>796325224</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2182,17 +2182,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2239,14 +2239,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.438053</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.617481</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2258,17 +2258,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.438053</v>
+        <v>-58.431522</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.617481</v>
+        <v>-34.617523</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2334,27 +2334,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2391,46 +2391,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.431522</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.617523</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2467,36 +2467,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.496255</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.650599</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2543,14 +2543,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2562,27 +2562,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,16 +2592,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2619,14 +2619,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.403583</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.591604</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2648,17 +2648,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2671,11 +2671,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2691,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2714,27 +2710,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2744,10 +2740,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -2767,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.445131</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.572117</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2843,14 +2843,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2862,27 +2862,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3024,17 +3024,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3071,14 +3071,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3090,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,27 +3166,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3223,46 +3223,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3299,46 +3299,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3404,17 +3404,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3437,12 +3437,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3451,14 +3451,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3470,7 +3470,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3480,17 +3480,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3527,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,27 +3546,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3589,12 +3589,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3755,26 +3755,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3831,26 +3831,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3983,14 +3983,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,7 +4002,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4032,16 +4032,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4059,14 +4059,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4108,16 +4108,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4126,55 +4126,55 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4207,18 +4207,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,27 +4230,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4283,14 +4283,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4306,17 +4306,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4359,18 +4359,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4392,17 +4392,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4439,26 +4439,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4515,14 +4515,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4534,27 +4534,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4591,14 +4591,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4610,7 +4610,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4663,14 +4663,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4739,14 +4739,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4762,27 +4762,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4819,14 +4819,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4891,30 +4891,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4924,17 +4924,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4967,30 +4967,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,17 +5066,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5123,14 +5123,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5142,7 +5142,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5351,10 +5351,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5370,27 +5370,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5423,50 +5423,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5503,26 +5503,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5579,26 +5579,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5608,17 +5608,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5641,60 +5641,60 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5731,14 +5731,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5750,27 +5750,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5883,46 +5883,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5945,12 +5945,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5959,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5978,27 +5978,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6035,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,7 +6054,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6064,17 +6064,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6111,10 +6111,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6130,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6187,14 +6187,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6206,7 +6206,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,15 +6241,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6259,18 +6259,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6282,27 +6282,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,15 +6317,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6339,26 +6339,26 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6368,17 +6368,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6401,60 +6401,60 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6491,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,7 +6510,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6520,17 +6520,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6567,14 +6567,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,17 +6586,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6662,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6710,23 +6710,23 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6738,17 +6738,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6791,14 +6791,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6814,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6871,14 +6871,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6947,14 +6947,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6966,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7023,46 +7023,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -7118,27 +7118,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7175,93 +7175,17 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.505593</v>
+        <v>-58.355342</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.582601</v>
+        <v>-34.63565</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2948,17 +2948,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3071,14 +3071,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3090,27 +3090,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3147,46 +3147,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3223,46 +3223,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3299,14 +3299,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3404,17 +3404,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3451,14 +3451,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3470,27 +3470,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3513,12 +3513,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3527,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,7 +3546,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3556,17 +3556,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3603,14 +3603,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3679,26 +3679,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3755,26 +3755,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3956,16 +3956,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3983,14 +3983,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,7 +4002,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4012,17 +4012,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4032,16 +4032,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4050,55 +4050,55 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4131,18 +4131,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4154,27 +4154,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4207,14 +4207,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4230,17 +4230,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4283,18 +4283,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4363,26 +4363,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4392,17 +4392,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4439,14 +4439,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4458,27 +4458,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4515,14 +4515,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4587,14 +4587,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4663,14 +4663,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4686,27 +4686,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4743,14 +4743,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4762,7 +4762,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4772,17 +4772,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4815,30 +4815,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4848,17 +4848,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4891,30 +4891,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4971,14 +4971,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4990,17 +4990,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5047,14 +5047,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5294,27 +5294,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5347,50 +5347,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5427,26 +5427,26 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5503,26 +5503,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5532,17 +5532,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5565,60 +5565,60 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5655,14 +5655,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5674,27 +5674,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5731,46 +5731,46 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5869,12 +5869,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5883,14 +5883,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5902,27 +5902,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5959,14 +5959,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5988,17 +5988,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6035,10 +6035,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6054,27 +6054,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6111,14 +6111,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,15 +6165,15 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6183,18 +6183,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6206,27 +6206,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,15 +6241,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6263,26 +6263,26 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6292,17 +6292,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6325,60 +6325,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6415,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,7 +6434,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6444,17 +6444,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6491,14 +6491,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6510,17 +6510,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6567,10 +6567,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6586,27 +6586,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6634,23 +6634,23 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6662,17 +6662,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6715,14 +6715,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6738,27 +6738,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6795,14 +6795,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6871,14 +6871,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6890,27 +6890,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6947,46 +6947,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7042,27 +7042,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7099,93 +7099,17 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.505593</v>
+        <v>-58.355342</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.582601</v>
+        <v>-34.63565</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,27 +898,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3291</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/13/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUISE 1933</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Retirar columna ya traspasaron fuente propia</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -941,24 +941,24 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.412544</v>
+        <v>-58.432085</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.590435</v>
+        <v>-34.60178</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -984,17 +984,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1031,14 +1031,14 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.432085</v>
+        <v>-58.378613</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.60178</v>
+        <v>-34.6349</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1050,27 +1050,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>10/16/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>José Andrés Pacheco de Melo 2084</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798897149</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1093,28 +1093,24 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.378613</v>
+        <v>-58.395656</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.6349</v>
+        <v>-34.590364</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1126,27 +1122,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>10/15/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>José Andrés Pacheco de Melo 2084</t>
+          <t>Rojas 1091</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>798897149</t>
+          <t>798897458</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1156,12 +1152,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso Fuente TECO y retiro de columna</t>
+          <t>Columna fuera de plomo (inclinada)</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1169,24 +1165,24 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.395656</v>
+        <v>-58.446458</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.590364</v>
+        <v>-34.608741</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1198,27 +1194,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/15/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rojas 1091</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>798897458</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,7 +1229,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo (inclinada)</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,16 +1245,20 @@
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.446458</v>
+        <v>-58.426169</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.608741</v>
+        <v>-34.579697</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1270,27 +1270,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1313,28 +1313,28 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.426169</v>
+        <v>-58.425997</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.579697</v>
+        <v>-34.620454</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.425997</v>
+        <v>-58.428283</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.620454</v>
+        <v>-34.601207</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1422,27 +1422,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1479,14 +1479,14 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.428283</v>
+        <v>-58.443626</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.601207</v>
+        <v>-34.621032</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1498,27 +1498,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1555,46 +1555,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.443626</v>
+        <v>-58.450789</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.621032</v>
+        <v>-34.577949</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1631,46 +1631,46 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.450789</v>
+        <v>-58.421741</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.577949</v>
+        <v>-34.584789</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar columna para pedir el traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1707,26 +1707,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.421741</v>
+        <v>-58.450579</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.584789</v>
+        <v>-34.607673</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir el traspaso</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1783,46 +1783,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.450579</v>
+        <v>-58.447022</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.607673</v>
+        <v>-34.575873</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,14 +1859,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.447022</v>
+        <v>-58.440625</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.575873</v>
+        <v>-34.625499</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1878,27 +1878,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,46 +1935,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.440625</v>
+        <v>-58.496935</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625499</v>
+        <v>-34.599084</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2011,36 +2011,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.496935</v>
+        <v>-58.400156</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.599084</v>
+        <v>-34.631369</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.400156</v>
+        <v>-58.402062</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.631369</v>
+        <v>-34.635143</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2106,27 +2106,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2163,14 +2163,14 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.402062</v>
+        <v>-58.438053</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.635143</v>
+        <v>-34.617481</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2182,17 +2182,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.438053</v>
+        <v>-58.431522</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.617481</v>
+        <v>-34.617523</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2258,27 +2258,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2315,46 +2315,46 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.431522</v>
+        <v>-58.496255</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.617523</v>
+        <v>-34.650599</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,11 +2369,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2391,36 +2391,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.496255</v>
+        <v>-58.371855</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.650599</v>
+        <v>-34.646958</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2467,14 +2467,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,27 +2486,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2516,16 +2516,16 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2543,14 +2543,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.403583</v>
+        <v>-58.441405</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.591604</v>
+        <v>-34.594348</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2562,7 +2562,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2572,17 +2572,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2595,11 +2595,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>1</v>
       </c>
@@ -2619,14 +2615,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2638,27 +2634,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2668,10 +2664,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+        </is>
+      </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2691,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.483821</v>
+        <v>-58.445131</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.677698</v>
+        <v>-34.572117</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2710,27 +2710,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2767,14 +2767,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2786,27 +2786,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2872,17 +2872,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2919,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.439751</v>
+        <v>-58.375515</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.609908</v>
+        <v>-34.634393</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2938,27 +2938,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2995,14 +2995,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3014,27 +3014,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3071,46 +3071,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3147,46 +3147,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,7 +3242,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3252,17 +3252,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3299,14 +3299,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,27 +3394,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3437,12 +3437,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3451,14 +3451,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3470,7 +3470,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3480,17 +3480,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3527,14 +3527,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3546,7 +3546,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3556,17 +3556,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3603,26 +3603,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3679,26 +3679,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3755,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,7 +3774,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3880,16 +3880,16 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3907,14 +3907,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3956,16 +3956,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3974,55 +3974,55 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4055,18 +4055,18 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4078,27 +4078,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4131,14 +4131,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4154,17 +4154,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4207,18 +4207,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4287,26 +4287,26 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4363,14 +4363,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4382,27 +4382,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4439,14 +4439,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4458,7 +4458,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4544,17 +4544,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4587,14 +4587,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4610,27 +4610,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4667,14 +4667,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4686,7 +4686,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4739,30 +4739,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4772,17 +4772,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4815,30 +4815,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4895,14 +4895,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4914,17 +4914,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4971,14 +4971,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5218,27 +5218,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5271,50 +5271,50 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5351,26 +5351,26 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5427,26 +5427,26 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5456,17 +5456,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5489,60 +5489,60 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5579,14 +5579,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5598,27 +5598,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5655,46 +5655,46 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5731,46 +5731,46 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5807,14 +5807,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5826,27 +5826,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5883,14 +5883,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5902,7 +5902,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5959,10 +5959,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5978,27 +5978,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6035,14 +6035,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6054,7 +6054,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6089,15 +6089,15 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6107,18 +6107,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6130,27 +6130,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6165,15 +6165,15 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6187,26 +6187,26 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6216,17 +6216,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6249,60 +6249,60 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6339,14 +6339,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6368,17 +6368,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6415,14 +6415,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6434,17 +6434,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6491,10 +6491,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6510,27 +6510,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6558,23 +6558,23 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6586,17 +6586,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6639,14 +6639,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6662,27 +6662,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6719,14 +6719,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6738,27 +6738,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6795,14 +6795,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6814,27 +6814,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6871,46 +6871,46 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6947,10 +6947,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6966,27 +6966,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7023,93 +7023,17 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.505593</v>
+        <v>-58.355342</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.582601</v>
+        <v>-34.63565</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1802,27 +1802,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1859,46 +1859,46 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.440625</v>
+        <v>-58.496935</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625499</v>
+        <v>-34.599084</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1935,36 +1935,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.496935</v>
+        <v>-58.400156</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.599084</v>
+        <v>-34.631369</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.400156</v>
+        <v>-58.402062</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.631369</v>
+        <v>-34.635143</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2030,27 +2030,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2087,14 +2087,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.402062</v>
+        <v>-58.438053</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.635143</v>
+        <v>-34.617481</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2106,17 +2106,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.438053</v>
+        <v>-58.431522</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.617481</v>
+        <v>-34.617523</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2182,27 +2182,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2239,46 +2239,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.431522</v>
+        <v>-58.496255</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.617523</v>
+        <v>-34.650599</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2315,36 +2315,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.496255</v>
+        <v>-58.371855</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.650599</v>
+        <v>-34.646958</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2391,14 +2391,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2410,27 +2410,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2440,16 +2440,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2467,14 +2467,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.403583</v>
+        <v>-58.441405</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.591604</v>
+        <v>-34.594348</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2496,17 +2496,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2519,11 +2519,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2539,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2562,27 +2558,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2592,10 +2588,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+        </is>
+      </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2615,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.483821</v>
+        <v>-58.445131</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.677698</v>
+        <v>-34.572117</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2634,27 +2634,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2691,14 +2691,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2710,27 +2710,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2767,10 +2767,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2843,14 +2843,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439751</v>
+        <v>-58.375515</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.609908</v>
+        <v>-34.634393</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2862,27 +2862,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2919,14 +2919,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2938,27 +2938,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2995,46 +2995,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3071,46 +3071,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3147,14 +3147,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3176,17 +3176,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3223,14 +3223,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3242,7 +3242,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3252,17 +3252,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3299,14 +3299,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3318,27 +3318,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3375,14 +3375,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3404,17 +3404,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3451,14 +3451,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3470,7 +3470,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3480,17 +3480,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3527,26 +3527,26 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3556,17 +3556,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3603,26 +3603,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3632,17 +3632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3679,14 +3679,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3698,7 +3698,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3708,17 +3708,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3755,14 +3755,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3774,7 +3774,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3804,16 +3804,16 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3831,14 +3831,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3860,17 +3860,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3880,16 +3880,16 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3898,55 +3898,55 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3979,18 +3979,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4002,27 +4002,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4055,14 +4055,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4078,17 +4078,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4131,18 +4131,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,17 +4164,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4211,26 +4211,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4287,14 +4287,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4306,27 +4306,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4363,14 +4363,14 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4435,14 +4435,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4468,17 +4468,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4511,14 +4511,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4534,27 +4534,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4591,14 +4591,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4610,7 +4610,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4663,30 +4663,30 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4739,30 +4739,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4819,14 +4819,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4838,17 +4838,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4895,14 +4895,14 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4914,7 +4914,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4971,10 +4971,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
     <row r="61">
     